--- a/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.80574034816209</v>
+        <v>3.805740348162203</v>
       </c>
       <c r="C2">
-        <v>0.866489951405697</v>
+        <v>0.8664899514059528</v>
       </c>
       <c r="D2">
-        <v>0.033465681268531</v>
+        <v>0.03346568126852389</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.48382592068819</v>
+        <v>2.483825920688162</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.270331069817416</v>
+        <v>3.270331069817473</v>
       </c>
       <c r="C3">
-        <v>0.7460499582046793</v>
+        <v>0.7460499582045088</v>
       </c>
       <c r="D3">
-        <v>0.03149193502187941</v>
+        <v>0.03149193502165204</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.172146371502606</v>
+        <v>2.17214637150262</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.56690360043288</v>
+        <v>1.566903600432923</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>2.947871306904744</v>
       </c>
       <c r="C4">
-        <v>0.6733655269274266</v>
+        <v>0.673365526927455</v>
       </c>
       <c r="D4">
-        <v>0.03045866724883695</v>
+        <v>0.0304586672488405</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.988200961951577</v>
+        <v>1.988200961951591</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.402427654197595</v>
+        <v>1.402427654197609</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,22 +529,22 @@
         <v>2.817771341227967</v>
       </c>
       <c r="C5">
-        <v>0.6440075018741709</v>
+        <v>0.6440075018740856</v>
       </c>
       <c r="D5">
-        <v>0.03007651164977432</v>
+        <v>0.03007651164989511</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.914856103370894</v>
+        <v>1.914856103370909</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.074803065671802</v>
+        <v>1.074803065671816</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.336669877671639</v>
+        <v>1.336669877671596</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.796239752105691</v>
+        <v>2.796239752105635</v>
       </c>
       <c r="C6">
-        <v>0.6391468735220371</v>
+        <v>0.6391468735223214</v>
       </c>
       <c r="D6">
-        <v>0.03001524458818494</v>
+        <v>0.03001524458819205</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.902767906063517</v>
+        <v>1.902767906063502</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.069065638351958</v>
+        <v>1.069065638351972</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.946111788471399</v>
+        <v>2.946111788471342</v>
       </c>
       <c r="C7">
-        <v>0.6729686062118674</v>
+        <v>0.6729686062120948</v>
       </c>
       <c r="D7">
-        <v>0.03045336317444125</v>
+        <v>0.03045336317455494</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.987205584050258</v>
+        <v>1.987205584050272</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.401536016618493</v>
+        <v>1.401536016618465</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.619650160909998</v>
+        <v>3.619650160910055</v>
       </c>
       <c r="C8">
-        <v>0.8246630174168104</v>
+        <v>0.8246630174170662</v>
       </c>
       <c r="D8">
-        <v>0.03274417574600363</v>
+        <v>0.03274417574624522</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.374654982706531</v>
+        <v>2.374654982706545</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.747490538570005</v>
+        <v>1.747490538569977</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.00491686067727</v>
+        <v>5.004916860677326</v>
       </c>
       <c r="C9">
-        <v>1.135162902106742</v>
+        <v>1.135162902106515</v>
       </c>
       <c r="D9">
-        <v>0.03897730298560731</v>
+        <v>0.03897730298536572</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.206707384292571</v>
+        <v>3.206707384292628</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.702929653521053</v>
+        <v>1.702929653521068</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.489047798421154</v>
+        <v>2.489047798421211</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.086682756428161</v>
+        <v>6.08668275642799</v>
       </c>
       <c r="C10">
-        <v>1.376180147593743</v>
+        <v>1.376180147593516</v>
       </c>
       <c r="D10">
-        <v>0.04517787315268862</v>
+        <v>0.0451778731527952</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.884469373439345</v>
+        <v>3.884469373439373</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.041494306758651</v>
+        <v>2.041494306758679</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.098231642367722</v>
+        <v>3.098231642367708</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.599883174347269</v>
+        <v>6.599883174347383</v>
       </c>
       <c r="C11">
-        <v>1.490022258104659</v>
+        <v>1.490022258104318</v>
       </c>
       <c r="D11">
-        <v>0.04851897027157293</v>
+        <v>0.04851897027162266</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.213687638625373</v>
+        <v>4.213687638625345</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.207740523695747</v>
+        <v>2.207740523695762</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.397313234179521</v>
+        <v>3.397313234179592</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.798029448779232</v>
+        <v>6.798029448779175</v>
       </c>
       <c r="C12">
-        <v>1.533882576816723</v>
+        <v>1.533882576817007</v>
       </c>
       <c r="D12">
-        <v>0.04987780375004291</v>
+        <v>0.04987780375019213</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.342054908340572</v>
+        <v>4.342054908340486</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.272858013230447</v>
+        <v>2.272858013230419</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.514636699108962</v>
+        <v>3.514636699108905</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.755171330732082</v>
+        <v>6.755171330732026</v>
       </c>
       <c r="C13">
-        <v>1.524400402157767</v>
+        <v>1.524400402158051</v>
       </c>
       <c r="D13">
-        <v>0.04958063537895896</v>
+        <v>0.04958063537918633</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.314231327630608</v>
+        <v>4.314231327630637</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.489170658021692</v>
+        <v>3.489170658021735</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.616103347437559</v>
+        <v>6.616103347437502</v>
       </c>
       <c r="C14">
         <v>1.493614672886906</v>
       </c>
       <c r="D14">
-        <v>0.04862875983089765</v>
+        <v>0.04862875983099713</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.224169778640515</v>
+        <v>4.224169778640601</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.213051743356928</v>
+        <v>2.213051743356957</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.406877808325518</v>
+        <v>3.406877808325589</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.531442348538519</v>
+        <v>6.531442348538576</v>
       </c>
       <c r="C15">
-        <v>1.474860186907904</v>
+        <v>1.47486018690779</v>
       </c>
       <c r="D15">
-        <v>0.04805854650819441</v>
+        <v>0.04805854650854258</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.169509666314582</v>
+        <v>4.16950966631461</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.185367922036676</v>
+        <v>2.18536792203669</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.35703234656593</v>
+        <v>3.357032346565902</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.05363057324621</v>
+        <v>6.053630573246153</v>
       </c>
       <c r="C16">
-        <v>1.368836688354691</v>
+        <v>1.368836688354975</v>
       </c>
       <c r="D16">
-        <v>0.04497149357864316</v>
+        <v>0.04497149357878527</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.863430489030605</v>
+        <v>3.863430489030577</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.030908319290347</v>
+        <v>2.030908319290333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.079199872266301</v>
+        <v>3.079199872266287</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.766408760604236</v>
+        <v>5.766408760604122</v>
       </c>
       <c r="C17">
-        <v>1.30496593224359</v>
+        <v>1.304965932243647</v>
       </c>
       <c r="D17">
-        <v>0.04322288483694336</v>
+        <v>0.04322288483719205</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.939544555416006</v>
+        <v>1.939544555415978</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.914953919639402</v>
+        <v>2.914953919639359</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>5.603136893521082</v>
       </c>
       <c r="C18">
-        <v>1.268614345510514</v>
+        <v>1.268614345510571</v>
       </c>
       <c r="D18">
-        <v>0.04226474929509294</v>
+        <v>0.04226474929463819</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.578712606266123</v>
+        <v>3.578712606266151</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.822484099453121</v>
+        <v>2.822484099453135</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.548166679243991</v>
+        <v>5.548166679244105</v>
       </c>
       <c r="C19">
         <v>1.256368498391453</v>
       </c>
       <c r="D19">
-        <v>0.04194802339758752</v>
+        <v>0.04194802339792858</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.54423495098257</v>
+        <v>3.544234950982599</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.796779175826089</v>
+        <v>5.796779175825918</v>
       </c>
       <c r="C20">
-        <v>1.311724253896728</v>
+        <v>1.311724253896671</v>
       </c>
       <c r="D20">
-        <v>0.04340397819551356</v>
+        <v>0.04340397819542119</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.700627777733644</v>
+        <v>3.7006277777337</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.932225394468148</v>
+        <v>2.932225394468162</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.656840508609264</v>
+        <v>6.656840508609434</v>
       </c>
       <c r="C21">
-        <v>1.502635485167502</v>
+        <v>1.502635485167275</v>
       </c>
       <c r="D21">
-        <v>0.0489056322914152</v>
+        <v>0.04890563229119493</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.250516276320269</v>
+        <v>4.250516276320241</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.430930222075943</v>
+        <v>3.430930222075958</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.241648394246226</v>
+        <v>7.241648394246511</v>
       </c>
       <c r="C22">
-        <v>1.631876137369431</v>
+        <v>1.631876137370114</v>
       </c>
       <c r="D22">
-        <v>0.05305984564892441</v>
+        <v>0.05305984564836308</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.631917223119132</v>
+        <v>4.631917223119103</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.420485738319385</v>
+        <v>2.420485738319414</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.781211254147891</v>
+        <v>3.781211254147905</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.927138797642954</v>
+        <v>6.927138797643067</v>
       </c>
       <c r="C23">
-        <v>1.562431796379485</v>
+        <v>1.562431796379258</v>
       </c>
       <c r="D23">
-        <v>0.05078391019209505</v>
+        <v>0.05078391019208794</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.31556209635805</v>
+        <v>2.315562096358036</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.591655254055993</v>
+        <v>3.591655254056008</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.783042986589521</v>
+        <v>5.783042986589635</v>
       </c>
       <c r="C24">
-        <v>1.308667679318319</v>
+        <v>1.308667679318546</v>
       </c>
       <c r="D24">
-        <v>0.04332196033320201</v>
+        <v>0.04332196033323044</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.691956102820797</v>
+        <v>3.69195610282074</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.944804861286187</v>
+        <v>1.944804861286144</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.92441092878245</v>
+        <v>2.924410928782521</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.620988000349541</v>
+        <v>4.620988000349371</v>
       </c>
       <c r="C25">
-        <v>1.049308634793675</v>
+        <v>1.049308634793476</v>
       </c>
       <c r="D25">
-        <v>0.03705387461190668</v>
+        <v>0.03705387461204879</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.971808791758178</v>
+        <v>2.97180879175815</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.279351345233721</v>
+        <v>2.279351345233735</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.805740348162203</v>
+        <v>3.80574034816209</v>
       </c>
       <c r="C2">
-        <v>0.8664899514059528</v>
+        <v>0.866489951405697</v>
       </c>
       <c r="D2">
-        <v>0.03346568126852389</v>
+        <v>0.033465681268531</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.483825920688162</v>
+        <v>2.48382592068819</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.270331069817473</v>
+        <v>3.270331069817416</v>
       </c>
       <c r="C3">
-        <v>0.7460499582045088</v>
+        <v>0.7460499582046793</v>
       </c>
       <c r="D3">
-        <v>0.03149193502165204</v>
+        <v>0.03149193502187941</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.17214637150262</v>
+        <v>2.172146371502606</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.566903600432923</v>
+        <v>1.56690360043288</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>2.947871306904744</v>
       </c>
       <c r="C4">
-        <v>0.673365526927455</v>
+        <v>0.6733655269274266</v>
       </c>
       <c r="D4">
-        <v>0.0304586672488405</v>
+        <v>0.03045866724883695</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.988200961951591</v>
+        <v>1.988200961951577</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.402427654197609</v>
+        <v>1.402427654197595</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,22 +529,22 @@
         <v>2.817771341227967</v>
       </c>
       <c r="C5">
-        <v>0.6440075018740856</v>
+        <v>0.6440075018741709</v>
       </c>
       <c r="D5">
-        <v>0.03007651164989511</v>
+        <v>0.03007651164977432</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.914856103370909</v>
+        <v>1.914856103370894</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.074803065671816</v>
+        <v>1.074803065671802</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.336669877671596</v>
+        <v>1.336669877671639</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.796239752105635</v>
+        <v>2.796239752105691</v>
       </c>
       <c r="C6">
-        <v>0.6391468735223214</v>
+        <v>0.6391468735220371</v>
       </c>
       <c r="D6">
-        <v>0.03001524458819205</v>
+        <v>0.03001524458818494</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.902767906063502</v>
+        <v>1.902767906063517</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.069065638351972</v>
+        <v>1.069065638351958</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.946111788471342</v>
+        <v>2.946111788471399</v>
       </c>
       <c r="C7">
-        <v>0.6729686062120948</v>
+        <v>0.6729686062118674</v>
       </c>
       <c r="D7">
-        <v>0.03045336317455494</v>
+        <v>0.03045336317444125</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.987205584050272</v>
+        <v>1.987205584050258</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.401536016618465</v>
+        <v>1.401536016618493</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.619650160910055</v>
+        <v>3.619650160909998</v>
       </c>
       <c r="C8">
-        <v>0.8246630174170662</v>
+        <v>0.8246630174168104</v>
       </c>
       <c r="D8">
-        <v>0.03274417574624522</v>
+        <v>0.03274417574600363</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.374654982706545</v>
+        <v>2.374654982706531</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.747490538569977</v>
+        <v>1.747490538570005</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.004916860677326</v>
+        <v>5.00491686067727</v>
       </c>
       <c r="C9">
-        <v>1.135162902106515</v>
+        <v>1.135162902106742</v>
       </c>
       <c r="D9">
-        <v>0.03897730298536572</v>
+        <v>0.03897730298560731</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.206707384292628</v>
+        <v>3.206707384292571</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.702929653521068</v>
+        <v>1.702929653521053</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.489047798421211</v>
+        <v>2.489047798421154</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.08668275642799</v>
+        <v>6.086682756428161</v>
       </c>
       <c r="C10">
-        <v>1.376180147593516</v>
+        <v>1.376180147593743</v>
       </c>
       <c r="D10">
-        <v>0.0451778731527952</v>
+        <v>0.04517787315268862</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.884469373439373</v>
+        <v>3.884469373439345</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.041494306758679</v>
+        <v>2.041494306758651</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.098231642367708</v>
+        <v>3.098231642367722</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.599883174347383</v>
+        <v>6.599883174347269</v>
       </c>
       <c r="C11">
-        <v>1.490022258104318</v>
+        <v>1.490022258104659</v>
       </c>
       <c r="D11">
-        <v>0.04851897027162266</v>
+        <v>0.04851897027157293</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.213687638625345</v>
+        <v>4.213687638625373</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.207740523695762</v>
+        <v>2.207740523695747</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.397313234179592</v>
+        <v>3.397313234179521</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.798029448779175</v>
+        <v>6.798029448779232</v>
       </c>
       <c r="C12">
-        <v>1.533882576817007</v>
+        <v>1.533882576816723</v>
       </c>
       <c r="D12">
-        <v>0.04987780375019213</v>
+        <v>0.04987780375004291</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.342054908340486</v>
+        <v>4.342054908340572</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.272858013230419</v>
+        <v>2.272858013230447</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.514636699108905</v>
+        <v>3.514636699108962</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.755171330732026</v>
+        <v>6.755171330732082</v>
       </c>
       <c r="C13">
-        <v>1.524400402158051</v>
+        <v>1.524400402157767</v>
       </c>
       <c r="D13">
-        <v>0.04958063537918633</v>
+        <v>0.04958063537895896</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.314231327630637</v>
+        <v>4.314231327630608</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.489170658021735</v>
+        <v>3.489170658021692</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.616103347437502</v>
+        <v>6.616103347437559</v>
       </c>
       <c r="C14">
         <v>1.493614672886906</v>
       </c>
       <c r="D14">
-        <v>0.04862875983099713</v>
+        <v>0.04862875983089765</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.224169778640601</v>
+        <v>4.224169778640515</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.213051743356957</v>
+        <v>2.213051743356928</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.406877808325589</v>
+        <v>3.406877808325518</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.531442348538576</v>
+        <v>6.531442348538519</v>
       </c>
       <c r="C15">
-        <v>1.47486018690779</v>
+        <v>1.474860186907904</v>
       </c>
       <c r="D15">
-        <v>0.04805854650854258</v>
+        <v>0.04805854650819441</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.16950966631461</v>
+        <v>4.169509666314582</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.18536792203669</v>
+        <v>2.185367922036676</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.357032346565902</v>
+        <v>3.35703234656593</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.053630573246153</v>
+        <v>6.05363057324621</v>
       </c>
       <c r="C16">
-        <v>1.368836688354975</v>
+        <v>1.368836688354691</v>
       </c>
       <c r="D16">
-        <v>0.04497149357878527</v>
+        <v>0.04497149357864316</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.863430489030577</v>
+        <v>3.863430489030605</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.030908319290333</v>
+        <v>2.030908319290347</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.079199872266287</v>
+        <v>3.079199872266301</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.766408760604122</v>
+        <v>5.766408760604236</v>
       </c>
       <c r="C17">
-        <v>1.304965932243647</v>
+        <v>1.30496593224359</v>
       </c>
       <c r="D17">
-        <v>0.04322288483719205</v>
+        <v>0.04322288483694336</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.939544555415978</v>
+        <v>1.939544555416006</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.914953919639359</v>
+        <v>2.914953919639402</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>5.603136893521082</v>
       </c>
       <c r="C18">
-        <v>1.268614345510571</v>
+        <v>1.268614345510514</v>
       </c>
       <c r="D18">
-        <v>0.04226474929463819</v>
+        <v>0.04226474929509294</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.578712606266151</v>
+        <v>3.578712606266123</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.822484099453135</v>
+        <v>2.822484099453121</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.548166679244105</v>
+        <v>5.548166679243991</v>
       </c>
       <c r="C19">
         <v>1.256368498391453</v>
       </c>
       <c r="D19">
-        <v>0.04194802339792858</v>
+        <v>0.04194802339758752</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.544234950982599</v>
+        <v>3.54423495098257</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.796779175825918</v>
+        <v>5.796779175826089</v>
       </c>
       <c r="C20">
-        <v>1.311724253896671</v>
+        <v>1.311724253896728</v>
       </c>
       <c r="D20">
-        <v>0.04340397819542119</v>
+        <v>0.04340397819551356</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.7006277777337</v>
+        <v>3.700627777733644</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.932225394468162</v>
+        <v>2.932225394468148</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.656840508609434</v>
+        <v>6.656840508609264</v>
       </c>
       <c r="C21">
-        <v>1.502635485167275</v>
+        <v>1.502635485167502</v>
       </c>
       <c r="D21">
-        <v>0.04890563229119493</v>
+        <v>0.0489056322914152</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.250516276320241</v>
+        <v>4.250516276320269</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.430930222075958</v>
+        <v>3.430930222075943</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.241648394246511</v>
+        <v>7.241648394246226</v>
       </c>
       <c r="C22">
-        <v>1.631876137370114</v>
+        <v>1.631876137369431</v>
       </c>
       <c r="D22">
-        <v>0.05305984564836308</v>
+        <v>0.05305984564892441</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.631917223119103</v>
+        <v>4.631917223119132</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.420485738319414</v>
+        <v>2.420485738319385</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.781211254147905</v>
+        <v>3.781211254147891</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.927138797643067</v>
+        <v>6.927138797642954</v>
       </c>
       <c r="C23">
-        <v>1.562431796379258</v>
+        <v>1.562431796379485</v>
       </c>
       <c r="D23">
-        <v>0.05078391019208794</v>
+        <v>0.05078391019209505</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.315562096358036</v>
+        <v>2.31556209635805</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.591655254056008</v>
+        <v>3.591655254055993</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.783042986589635</v>
+        <v>5.783042986589521</v>
       </c>
       <c r="C24">
-        <v>1.308667679318546</v>
+        <v>1.308667679318319</v>
       </c>
       <c r="D24">
-        <v>0.04332196033323044</v>
+        <v>0.04332196033320201</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.69195610282074</v>
+        <v>3.691956102820797</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.944804861286144</v>
+        <v>1.944804861286187</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.924410928782521</v>
+        <v>2.92441092878245</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.620988000349371</v>
+        <v>4.620988000349541</v>
       </c>
       <c r="C25">
-        <v>1.049308634793476</v>
+        <v>1.049308634793675</v>
       </c>
       <c r="D25">
-        <v>0.03705387461204879</v>
+        <v>0.03705387461190668</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.97180879175815</v>
+        <v>2.971808791758178</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.279351345233735</v>
+        <v>2.279351345233721</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.80574034816209</v>
+        <v>3.773654636617664</v>
       </c>
       <c r="C2">
-        <v>0.866489951405697</v>
+        <v>0.8530153262273927</v>
       </c>
       <c r="D2">
-        <v>0.033465681268531</v>
+        <v>0.03512959303350272</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.48382592068819</v>
+        <v>2.487134007023002</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007579388251014616</v>
       </c>
       <c r="H2">
-        <v>1.348160303536261</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.354846707086452</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.844725972460964</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1.836901993436541</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.270331069817416</v>
+        <v>3.242737688145837</v>
       </c>
       <c r="C3">
-        <v>0.7460499582046793</v>
+        <v>0.7340174190240703</v>
       </c>
       <c r="D3">
-        <v>0.03149193502187941</v>
+        <v>0.03337736449196527</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.172146371502606</v>
+        <v>2.179843696460239</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000768296030310636</v>
       </c>
       <c r="H3">
-        <v>1.197659815030576</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.206808144011873</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.56690360043288</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.56047271745318</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.947871306904744</v>
+        <v>2.922998114815698</v>
       </c>
       <c r="C4">
-        <v>0.6733655269274266</v>
+        <v>0.6622176524599297</v>
       </c>
       <c r="D4">
-        <v>0.03045866724883695</v>
+        <v>0.03247854722107846</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.988200961951577</v>
+        <v>1.998550812565881</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007747635402111871</v>
       </c>
       <c r="H4">
-        <v>1.109684513745194</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.120317308459093</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.402427654197595</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.396783873566676</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.817771341227967</v>
+        <v>2.794001216617062</v>
       </c>
       <c r="C5">
-        <v>0.6440075018741709</v>
+        <v>0.6332208790818186</v>
       </c>
       <c r="D5">
-        <v>0.03007651164977432</v>
+        <v>0.03215096740479595</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.914856103370894</v>
+        <v>1.926280299534326</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007774299967765565</v>
       </c>
       <c r="H5">
-        <v>1.074803065671802</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.08603638378132</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.336669877671639</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.331333275876702</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.796239752105691</v>
+        <v>2.77265257147593</v>
       </c>
       <c r="C6">
-        <v>0.6391468735220371</v>
+        <v>0.628420306141237</v>
       </c>
       <c r="D6">
-        <v>0.03001524458818494</v>
+        <v>0.03209875439833709</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.902767906063517</v>
+        <v>1.914370206886758</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007778747256807635</v>
       </c>
       <c r="H6">
-        <v>1.069065638351958</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.080398470257606</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.325820277160844</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.320533953896003</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.946111788471399</v>
+        <v>2.921253489738604</v>
       </c>
       <c r="C7">
-        <v>0.6729686062118674</v>
+        <v>0.6618255995555558</v>
       </c>
       <c r="D7">
-        <v>0.03045336317444125</v>
+        <v>0.03247397982450551</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.987205584050258</v>
+        <v>1.997569945353561</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007747993714116639</v>
       </c>
       <c r="H7">
-        <v>1.109210345736457</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.119851254246043</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.401536016618493</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.395896429440484</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.619650160909998</v>
+        <v>3.589124050526095</v>
       </c>
       <c r="C8">
-        <v>0.8246630174168104</v>
+        <v>0.8116863976867137</v>
       </c>
       <c r="D8">
-        <v>0.03274417574600363</v>
+        <v>0.03448490830037798</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.374654982706531</v>
+        <v>2.379487985486819</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.000761489918981876</v>
       </c>
       <c r="H8">
-        <v>1.295254453501229</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.302796956749418</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.747490538570005</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.740163482295813</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.00491686067727</v>
+        <v>4.962738968123347</v>
       </c>
       <c r="C9">
-        <v>1.135162902106742</v>
+        <v>1.118532854996118</v>
       </c>
       <c r="D9">
-        <v>0.03897730298560731</v>
+        <v>0.04014679781209907</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.206707384292571</v>
+        <v>3.200126992712285</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007360526477210583</v>
       </c>
       <c r="H9">
-        <v>1.702929653521053</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.704044891168778</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.489047798421154</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.477655135426758</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.086682756428161</v>
+        <v>6.035184764641031</v>
       </c>
       <c r="C10">
-        <v>1.376180147593743</v>
+        <v>1.356739779558382</v>
       </c>
       <c r="D10">
-        <v>0.04517787315268862</v>
+        <v>0.04589591379487956</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.884469373439345</v>
+        <v>3.868741713996769</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007174376456893795</v>
       </c>
       <c r="H10">
-        <v>2.041494306758651</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.037425819519427</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.098231642367722</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>3.082966293067557</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.599883174347269</v>
+        <v>6.543839060396806</v>
       </c>
       <c r="C11">
-        <v>1.490022258104659</v>
+        <v>1.469247934610109</v>
       </c>
       <c r="D11">
-        <v>0.04851897027157293</v>
+        <v>0.04901891751173792</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.213687638625373</v>
+        <v>4.193499221531198</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007088893586915071</v>
       </c>
       <c r="H11">
-        <v>2.207740523695747</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.201133580234767</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.397313234179521</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3.379941764251271</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.798029448779232</v>
+        <v>6.740202768194479</v>
       </c>
       <c r="C12">
-        <v>1.533882576816723</v>
+        <v>1.51259192375835</v>
       </c>
       <c r="D12">
-        <v>0.04987780375004291</v>
+        <v>0.05029264417098744</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.342054908340572</v>
+        <v>4.320118300477759</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007056304160876183</v>
       </c>
       <c r="H12">
-        <v>2.272858013230447</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.265254329602556</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.514636699108962</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>3.496398423135659</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.755171330732082</v>
+        <v>6.697731608167146</v>
       </c>
       <c r="C13">
-        <v>1.524400402157767</v>
+        <v>1.503221508960621</v>
       </c>
       <c r="D13">
-        <v>0.04958063537895896</v>
+        <v>0.0500139306424856</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.314231327630608</v>
+        <v>4.292674159660464</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007063334541625067</v>
       </c>
       <c r="H13">
-        <v>2.25873004633759</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.251342794132384</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.489170658021692</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>3.471122550129124</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.616103347437559</v>
+        <v>6.559913922682313</v>
       </c>
       <c r="C14">
-        <v>1.493614672886906</v>
+        <v>1.47279811666391</v>
       </c>
       <c r="D14">
-        <v>0.04862875983089765</v>
+        <v>0.04912176055590578</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.224169778640515</v>
+        <v>4.203838829537318</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007086217507968798</v>
       </c>
       <c r="H14">
-        <v>2.213051743356928</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.206363574912046</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.406877808325518</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>3.38943655670802</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.531442348538519</v>
+        <v>6.476010212926553</v>
       </c>
       <c r="C15">
-        <v>1.474860186907904</v>
+        <v>1.454264004170227</v>
       </c>
       <c r="D15">
-        <v>0.04805854650819441</v>
+        <v>0.04858776606351967</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.169509666314582</v>
+        <v>4.149921565975745</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007100201966422755</v>
       </c>
       <c r="H15">
-        <v>2.185367922036676</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.179103003683167</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.35703234656593</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>3.339953066281069</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.05363057324621</v>
+        <v>6.002422189443848</v>
       </c>
       <c r="C16">
-        <v>1.368836688354691</v>
+        <v>1.34948212651318</v>
       </c>
       <c r="D16">
-        <v>0.04497149357864316</v>
+        <v>0.04570347703718625</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.863430489030605</v>
+        <v>3.84798707486695</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007179938522696537</v>
       </c>
       <c r="H16">
-        <v>2.030908319290347</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.027001349969069</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.079199872266301</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>3.064063720143295</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.766408760604236</v>
+        <v>5.71770261840237</v>
       </c>
       <c r="C17">
-        <v>1.30496593224359</v>
+        <v>1.286356833768366</v>
       </c>
       <c r="D17">
-        <v>0.04322288483694336</v>
+        <v>0.0440755726949007</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.681459675112279</v>
+        <v>3.668472336871673</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007228582574748057</v>
       </c>
       <c r="H17">
-        <v>1.939544555416006</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.93703204165503</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.914953919639402</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>2.900909860635124</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.603136893521082</v>
+        <v>5.555842419478438</v>
       </c>
       <c r="C18">
-        <v>1.268614345510514</v>
+        <v>1.250429027389089</v>
       </c>
       <c r="D18">
-        <v>0.04226474929509294</v>
+        <v>0.04318571710368246</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.578712606266123</v>
+        <v>3.567110929089409</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007256493261090913</v>
       </c>
       <c r="H18">
-        <v>1.888116831991809</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.886390113525337</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.822484099453121</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>2.809037301130232</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.548166679243991</v>
+        <v>5.501345870088812</v>
       </c>
       <c r="C19">
-        <v>1.256368498391453</v>
+        <v>1.238325891408238</v>
       </c>
       <c r="D19">
-        <v>0.04194802339758752</v>
+        <v>0.04289193040871453</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.54423495098257</v>
+        <v>3.533098202235834</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007265934413939095</v>
       </c>
       <c r="H19">
-        <v>1.87088620036333</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.869422989330417</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.791495210300724</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2.77824581120106</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.796779175826089</v>
+        <v>5.7478096230966</v>
       </c>
       <c r="C20">
-        <v>1.311724253896728</v>
+        <v>1.293036336432692</v>
       </c>
       <c r="D20">
-        <v>0.04340397819551356</v>
+        <v>0.0442439397824117</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.700627777733644</v>
+        <v>3.687381880699718</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007223412051763992</v>
       </c>
       <c r="H20">
-        <v>1.949151597455497</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.946492383718621</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.932225394468148</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>2.918068395020256</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.656840508609264</v>
+        <v>6.60028566289094</v>
       </c>
       <c r="C21">
-        <v>1.502635485167502</v>
+        <v>1.481712835757889</v>
       </c>
       <c r="D21">
-        <v>0.0489056322914152</v>
+        <v>0.04938117110589957</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.250516276320269</v>
+        <v>4.229826911711484</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007079503119791219</v>
       </c>
       <c r="H21">
-        <v>2.226406127703584</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.219513676690426</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.430930222075943</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>3.413312800662553</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.241648394246226</v>
+        <v>7.179767560562709</v>
       </c>
       <c r="C22">
-        <v>1.631876137369431</v>
+        <v>1.6094254880515</v>
       </c>
       <c r="D22">
-        <v>0.05305984564892441</v>
+        <v>0.05328201868033489</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.631917223119132</v>
+        <v>4.606007493480149</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006984105785226424</v>
       </c>
       <c r="H22">
-        <v>2.420485738319385</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.410612723398785</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.781211254147891</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>3.76091244954668</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.927138797642954</v>
+        <v>6.868141570798855</v>
       </c>
       <c r="C23">
-        <v>1.562431796379485</v>
+        <v>1.540804170368688</v>
       </c>
       <c r="D23">
-        <v>0.05078391019209505</v>
+        <v>0.05114299332351635</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.42606609275046</v>
+        <v>4.402981890191512</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007035185576073756</v>
       </c>
       <c r="H23">
-        <v>2.31556209635805</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.307303517459133</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.591655254055993</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>3.572834890105042</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.783042986589521</v>
+        <v>5.734192604363045</v>
       </c>
       <c r="C24">
-        <v>1.308667679318319</v>
+        <v>1.290015410630588</v>
       </c>
       <c r="D24">
-        <v>0.04332196033320201</v>
+        <v>0.0441676788904104</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.691956102820797</v>
+        <v>3.678827181229593</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007225749808995274</v>
       </c>
       <c r="H24">
-        <v>1.944804861286187</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.94221201944697</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.92441092878245</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>2.910305083650726</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.620988000349541</v>
+        <v>4.582057627041763</v>
       </c>
       <c r="C25">
-        <v>1.049308634793675</v>
+        <v>1.033681287380261</v>
       </c>
       <c r="D25">
-        <v>0.03705387461190668</v>
+        <v>0.038381903067922</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.971808791758178</v>
+        <v>2.96841346124981</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007428936082075478</v>
       </c>
       <c r="H25">
-        <v>1.586863818781069</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.589777224486753</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.279351345233721</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>2.269175255143551</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.773654636617664</v>
+        <v>2.687406365511777</v>
       </c>
       <c r="C2">
-        <v>0.8530153262273927</v>
+        <v>0.6417784123918295</v>
       </c>
       <c r="D2">
-        <v>0.03512959303350272</v>
+        <v>0.01636639225293823</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.487134007023002</v>
+        <v>1.283011493910081</v>
       </c>
       <c r="G2">
-        <v>0.0007579388251014616</v>
+        <v>0.0007842145836809362</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.354846707086452</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7475702070975316</v>
       </c>
       <c r="L2">
-        <v>1.836901993436541</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.6393599157342855</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.242737688145837</v>
+        <v>2.321685498120928</v>
       </c>
       <c r="C3">
-        <v>0.7340174190240703</v>
+        <v>0.5537927613215174</v>
       </c>
       <c r="D3">
-        <v>0.03337736449196527</v>
+        <v>0.01794051570857214</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.179843696460239</v>
+        <v>1.158052489858321</v>
       </c>
       <c r="G3">
-        <v>0.000768296030310636</v>
+        <v>0.0007915787014403456</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.206808144011873</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.645267580831181</v>
       </c>
       <c r="L3">
-        <v>1.56047271745318</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.6900720479797151</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.922998114815698</v>
+        <v>2.100095719394687</v>
       </c>
       <c r="C4">
-        <v>0.6622176524599297</v>
+        <v>0.500415968955167</v>
       </c>
       <c r="D4">
-        <v>0.03247854722107846</v>
+        <v>0.01894804457938548</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.998550812565881</v>
+        <v>1.084702417948932</v>
       </c>
       <c r="G4">
-        <v>0.0007747635402111871</v>
+        <v>0.0007962219099987289</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.120317308459093</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5832601233630328</v>
       </c>
       <c r="L4">
-        <v>1.396783873566676</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0.722804818719613</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.794001216617062</v>
+        <v>2.010434698553638</v>
       </c>
       <c r="C5">
-        <v>0.6332208790818186</v>
+        <v>0.4788003191607402</v>
       </c>
       <c r="D5">
-        <v>0.03215096740479595</v>
+        <v>0.0193683119173178</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.926280299534326</v>
+        <v>1.055579993707724</v>
       </c>
       <c r="G5">
-        <v>0.0007774299967765565</v>
+        <v>0.0007981459264980324</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.08603638378132</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5581642814757117</v>
       </c>
       <c r="L5">
-        <v>1.331333275876702</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0.7365263791049799</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.77265257147593</v>
+        <v>1.995582161364723</v>
       </c>
       <c r="C6">
-        <v>0.628420306141237</v>
+        <v>0.475218518077412</v>
       </c>
       <c r="D6">
-        <v>0.03209875439833709</v>
+        <v>0.01943866541832406</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.914370206886758</v>
+        <v>1.050788408468279</v>
       </c>
       <c r="G6">
-        <v>0.0007778747256807635</v>
+        <v>0.0007984673689515468</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.080398470257606</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5540067298840015</v>
       </c>
       <c r="L6">
-        <v>1.320533953896003</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0.7388274350555086</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.921253489738604</v>
+        <v>2.098884068860912</v>
       </c>
       <c r="C7">
-        <v>0.6618255995555558</v>
+        <v>0.5001239366358448</v>
       </c>
       <c r="D7">
-        <v>0.03247397982450551</v>
+        <v>0.01895367398439252</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.997569945353561</v>
+        <v>1.084306653602781</v>
       </c>
       <c r="G7">
-        <v>0.0007747993714116639</v>
+        <v>0.0007962477272807028</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.119851254246043</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.582921010947949</v>
       </c>
       <c r="L7">
-        <v>1.395896429440484</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.7229883463142279</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.589124050526095</v>
+        <v>2.560623507053378</v>
       </c>
       <c r="C8">
-        <v>0.8116863976867137</v>
+        <v>0.6112898690423947</v>
       </c>
       <c r="D8">
-        <v>0.03448490830037798</v>
+        <v>0.01690024269035639</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.379487985486819</v>
+        <v>1.239174668385672</v>
       </c>
       <c r="G8">
-        <v>0.000761489918981876</v>
+        <v>0.0007867292994344792</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.302796956749418</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7121098649661022</v>
       </c>
       <c r="L8">
-        <v>1.740163482295813</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.6565027781253541</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.962738968123347</v>
+        <v>3.494942870049954</v>
       </c>
       <c r="C9">
-        <v>1.118532854996118</v>
+        <v>0.8357598899325183</v>
       </c>
       <c r="D9">
-        <v>0.04014679781209907</v>
+        <v>0.01323074032221783</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.200126992712285</v>
+        <v>1.573643222667272</v>
       </c>
       <c r="G9">
-        <v>0.0007360526477210583</v>
+        <v>0.0007689647112470948</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.704044891168778</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9733569833218638</v>
       </c>
       <c r="L9">
-        <v>2.477655135426758</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.5396941256994801</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.035184764641031</v>
+        <v>4.207270019080909</v>
       </c>
       <c r="C10">
-        <v>1.356739779558382</v>
+        <v>1.006723003342188</v>
       </c>
       <c r="D10">
-        <v>0.04589591379487956</v>
+        <v>0.01080391232468614</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.868741713996769</v>
+        <v>1.844324614823478</v>
       </c>
       <c r="G10">
-        <v>0.0007174376456893795</v>
+        <v>0.0007563636978895698</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.037425819519427</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.172464214664188</v>
       </c>
       <c r="L10">
-        <v>3.082966293067557</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.4635534303573365</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.543839060396806</v>
+        <v>4.539062871160809</v>
       </c>
       <c r="C11">
-        <v>1.469247934610109</v>
+        <v>1.086350094260951</v>
       </c>
       <c r="D11">
-        <v>0.04901891751173792</v>
+        <v>0.009772220867438008</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.193499221531198</v>
+        <v>1.974460136850809</v>
       </c>
       <c r="G11">
-        <v>0.0007088893586915071</v>
+        <v>0.0007507040768455737</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.201133580234767</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.265200019823254</v>
       </c>
       <c r="L11">
-        <v>3.379941764251271</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.4313769354534251</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.740202768194479</v>
+        <v>4.666020019380312</v>
       </c>
       <c r="C12">
-        <v>1.51259192375835</v>
+        <v>1.116821109521879</v>
       </c>
       <c r="D12">
-        <v>0.05029264417098744</v>
+        <v>0.009393342365721757</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.320118300477759</v>
+        <v>2.024896564138089</v>
       </c>
       <c r="G12">
-        <v>0.0007056304160876183</v>
+        <v>0.0007485690176032844</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.265254329602556</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.300684516517705</v>
       </c>
       <c r="L12">
-        <v>3.496398423135659</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.4195811641910474</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.697731608167146</v>
+        <v>4.638615618126096</v>
       </c>
       <c r="C13">
-        <v>1.503221508960621</v>
+        <v>1.110243602558683</v>
       </c>
       <c r="D13">
-        <v>0.0500139306424856</v>
+        <v>0.00947439094688729</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.292674159660464</v>
+        <v>2.013980128179199</v>
       </c>
       <c r="G13">
-        <v>0.0007063334541625067</v>
+        <v>0.0007490285201390643</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.251342794132384</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.293024971871816</v>
       </c>
       <c r="L13">
-        <v>3.471122550129124</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.4221036991083906</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.559913922682313</v>
+        <v>4.549480136407965</v>
       </c>
       <c r="C14">
-        <v>1.47279811666391</v>
+        <v>1.088850273486656</v>
       </c>
       <c r="D14">
-        <v>0.04912176055590578</v>
+        <v>0.00974080493488394</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.203838829537318</v>
+        <v>1.978585458069432</v>
       </c>
       <c r="G14">
-        <v>0.0007086217507968798</v>
+        <v>0.0007505282760210593</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.206363574912046</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.268111635763759</v>
       </c>
       <c r="L14">
-        <v>3.38943655670802</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.4303984825103271</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.476010212926553</v>
+        <v>4.495059605965196</v>
       </c>
       <c r="C15">
-        <v>1.454264004170227</v>
+        <v>1.075789282850735</v>
       </c>
       <c r="D15">
-        <v>0.04858776606351967</v>
+        <v>0.009905573589666261</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.149921565975745</v>
+        <v>1.957060644057179</v>
       </c>
       <c r="G15">
-        <v>0.0007100201966422755</v>
+        <v>0.0007514479028946182</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.179103003683167</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.252901157564864</v>
       </c>
       <c r="L15">
-        <v>3.339953066281069</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.4355310197789031</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.002422189443848</v>
+        <v>4.185759076583679</v>
       </c>
       <c r="C16">
-        <v>1.34948212651318</v>
+        <v>1.001560744463291</v>
       </c>
       <c r="D16">
-        <v>0.04570347703718625</v>
+        <v>0.01087290552077924</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.84798707486695</v>
+        <v>1.835973253227763</v>
       </c>
       <c r="G16">
-        <v>0.0007179938522696537</v>
+        <v>0.0007567348363937454</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.027001349969069</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.166451884665179</v>
       </c>
       <c r="L16">
-        <v>3.064063720143295</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.4657086392357179</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.71770261840237</v>
+        <v>3.998133155733797</v>
       </c>
       <c r="C17">
-        <v>1.286356833768366</v>
+        <v>0.9565335011743912</v>
       </c>
       <c r="D17">
-        <v>0.0440755726949007</v>
+        <v>0.01148577848650234</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.668472336871673</v>
+        <v>1.763584396448948</v>
       </c>
       <c r="G17">
-        <v>0.0007228582574748057</v>
+        <v>0.0007599952325600956</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.93703204165503</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.114009713957898</v>
       </c>
       <c r="L17">
-        <v>2.900909860635124</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.4848753214591639</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.555842419478438</v>
+        <v>3.890931998468488</v>
       </c>
       <c r="C18">
-        <v>1.250429027389089</v>
+        <v>0.9308062084293738</v>
       </c>
       <c r="D18">
-        <v>0.04318571710368246</v>
+        <v>0.01184499426919761</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.567110929089409</v>
+        <v>1.722597216769927</v>
       </c>
       <c r="G18">
-        <v>0.0007256493261090913</v>
+        <v>0.0007618775184353875</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.886390113525337</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.084045976624537</v>
       </c>
       <c r="L18">
-        <v>2.809037301130232</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.4961287295809704</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.501345870088812</v>
+        <v>3.854752862558826</v>
       </c>
       <c r="C19">
-        <v>1.238325891408238</v>
+        <v>0.9221233349257432</v>
       </c>
       <c r="D19">
-        <v>0.04289193040871453</v>
+        <v>0.01196773127698325</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.533098202235834</v>
+        <v>1.708826844153108</v>
       </c>
       <c r="G19">
-        <v>0.0007265934413939095</v>
+        <v>0.0007625160955768336</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.869422989330417</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.07393343781969</v>
       </c>
       <c r="L19">
-        <v>2.77824581120106</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.4999773160173007</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.7478096230966</v>
+        <v>4.018030750913738</v>
       </c>
       <c r="C20">
-        <v>1.293036336432692</v>
+        <v>0.9613086606976822</v>
       </c>
       <c r="D20">
-        <v>0.0442439397824117</v>
+        <v>0.01141983343375763</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.687381880699718</v>
+        <v>1.771222117980841</v>
       </c>
       <c r="G20">
-        <v>0.0007223412051763992</v>
+        <v>0.0007596474500773687</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.946492383718621</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.119571224842275</v>
       </c>
       <c r="L20">
-        <v>2.918068395020256</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.4828110303820132</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.60028566289094</v>
+        <v>4.575623999507911</v>
       </c>
       <c r="C21">
-        <v>1.481712835757889</v>
+        <v>1.095124942139307</v>
       </c>
       <c r="D21">
-        <v>0.04938117110589957</v>
+        <v>0.00966222008188744</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.229826911711484</v>
+        <v>1.988949041346885</v>
       </c>
       <c r="G21">
-        <v>0.0007079503119791219</v>
+        <v>0.0007500875611010795</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.219513676690426</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.275418825959761</v>
       </c>
       <c r="L21">
-        <v>3.413312800662553</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.4279512515724164</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.179767560562709</v>
+        <v>4.947816216834838</v>
       </c>
       <c r="C22">
-        <v>1.6094254880515</v>
+        <v>1.184463732140841</v>
       </c>
       <c r="D22">
-        <v>0.05328201868033489</v>
+        <v>0.008583126383228112</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.606007493480149</v>
+        <v>2.138073504380628</v>
       </c>
       <c r="G22">
-        <v>0.0006984105785226424</v>
+        <v>0.0007438856352266325</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.410612723398785</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.379447798770059</v>
       </c>
       <c r="L22">
-        <v>3.76091244954668</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.3943828326786019</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.868141570798855</v>
+        <v>4.74838628965523</v>
       </c>
       <c r="C23">
-        <v>1.540804170368688</v>
+        <v>1.136591012048086</v>
       </c>
       <c r="D23">
-        <v>0.05114299332351635</v>
+        <v>0.009152163640284705</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.402981890191512</v>
+        <v>2.057803578485363</v>
       </c>
       <c r="G23">
-        <v>0.0007035185576073756</v>
+        <v>0.000747192355553475</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.307303517459133</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.323706023901607</v>
       </c>
       <c r="L23">
-        <v>3.572834890105042</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.4120770407853946</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.734192604363045</v>
+        <v>4.009032983842587</v>
       </c>
       <c r="C24">
-        <v>1.290015410630588</v>
+        <v>0.9591493181492297</v>
       </c>
       <c r="D24">
-        <v>0.0441676788904104</v>
+        <v>0.01144962590657528</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.678827181229593</v>
+        <v>1.7677671524457</v>
       </c>
       <c r="G24">
-        <v>0.0007225749808995274</v>
+        <v>0.0007598046579625721</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.94221201944697</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.11705629072587</v>
       </c>
       <c r="L24">
-        <v>2.910305083650726</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.4837435694023497</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.582057627041763</v>
+        <v>3.238293249773278</v>
       </c>
       <c r="C25">
-        <v>1.033681287380261</v>
+        <v>0.7741391507474589</v>
       </c>
       <c r="D25">
-        <v>0.038381903067922</v>
+        <v>0.01418034307177329</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.96841346124981</v>
+        <v>1.479267360877088</v>
       </c>
       <c r="G25">
-        <v>0.0007428936082075478</v>
+        <v>0.0007736836291378961</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.589777224486753</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9016089760666404</v>
       </c>
       <c r="L25">
-        <v>2.269175255143551</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.5697055041183887</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.687406365511777</v>
+        <v>3.818361643038997</v>
       </c>
       <c r="C2">
-        <v>0.6417784123918295</v>
+        <v>1.047180113930835</v>
       </c>
       <c r="D2">
-        <v>0.01636639225293823</v>
+        <v>0.009446620055661548</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.283011493910081</v>
+        <v>1.537296479560695</v>
       </c>
       <c r="G2">
-        <v>0.0007842145836809362</v>
+        <v>0.0007682820832066958</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7475702070975316</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6393599157342855</v>
+        <v>0.5196040929348058</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.321685498120928</v>
+        <v>3.292313659842989</v>
       </c>
       <c r="C3">
-        <v>0.5537927613215174</v>
+        <v>0.9025840122034197</v>
       </c>
       <c r="D3">
-        <v>0.01794051570857214</v>
+        <v>0.01095039850890345</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.158052489858321</v>
+        <v>1.363973783286383</v>
       </c>
       <c r="G3">
-        <v>0.0007915787014403456</v>
+        <v>0.0007767631359591247</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.645267580831181</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6900720479797151</v>
+        <v>0.5710096480665339</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.100095719394687</v>
+        <v>2.974149745799139</v>
       </c>
       <c r="C4">
-        <v>0.500415968955167</v>
+        <v>0.8150420894463366</v>
       </c>
       <c r="D4">
-        <v>0.01894804457938548</v>
+        <v>0.01195311645812147</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.084702417948932</v>
+        <v>1.262061793021715</v>
       </c>
       <c r="G4">
-        <v>0.0007962219099987289</v>
+        <v>0.0007820990381285106</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5832601233630328</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.722804818719613</v>
+        <v>0.6041754115872013</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.010434698553638</v>
+        <v>2.845526841282094</v>
       </c>
       <c r="C5">
-        <v>0.4788003191607402</v>
+        <v>0.7796278397872527</v>
       </c>
       <c r="D5">
-        <v>0.0193683119173178</v>
+        <v>0.0123799964000888</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.055579993707724</v>
+        <v>1.221542756198573</v>
       </c>
       <c r="G5">
-        <v>0.0007981459264980324</v>
+        <v>0.0007843075815822419</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5581642814757117</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7365263791049799</v>
+        <v>0.6180729195134322</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.995582161364723</v>
+        <v>2.824226346578541</v>
       </c>
       <c r="C6">
-        <v>0.475218518077412</v>
+        <v>0.7737615857750768</v>
       </c>
       <c r="D6">
-        <v>0.01943866541832406</v>
+        <v>0.01245193628931496</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.050788408468279</v>
+        <v>1.214872269030096</v>
       </c>
       <c r="G6">
-        <v>0.0007984673689515468</v>
+        <v>0.0007846764194096066</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5540067298840015</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7388274350555086</v>
+        <v>0.6204031009875646</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.098884068860912</v>
+        <v>2.972411146674744</v>
       </c>
       <c r="C7">
-        <v>0.5001239366358448</v>
+        <v>0.8145634941123774</v>
       </c>
       <c r="D7">
-        <v>0.01895367398439252</v>
+        <v>0.01195880167478425</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.084306653602781</v>
+        <v>1.26151140050338</v>
       </c>
       <c r="G7">
-        <v>0.0007962477272807028</v>
+        <v>0.0007821286828518792</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.582921010947949</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7229883463142279</v>
+        <v>0.6043613168704773</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.560623507053378</v>
+        <v>3.635861649558933</v>
       </c>
       <c r="C8">
-        <v>0.6112898690423947</v>
+        <v>0.9970328905292263</v>
       </c>
       <c r="D8">
-        <v>0.01690024269035639</v>
+        <v>0.009947564102901651</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.239174668385672</v>
+        <v>1.47652153195726</v>
       </c>
       <c r="G8">
-        <v>0.0007867292994344792</v>
+        <v>0.0007711808174090781</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7121098649661022</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6565027781253541</v>
+        <v>0.5369830184338262</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.494942870049954</v>
+        <v>4.984500478942778</v>
       </c>
       <c r="C9">
-        <v>0.8357598899325183</v>
+        <v>1.367346140260338</v>
       </c>
       <c r="D9">
-        <v>0.01323074032221783</v>
+        <v>0.006720710477063463</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.573643222667272</v>
+        <v>1.940117269844976</v>
       </c>
       <c r="G9">
-        <v>0.0007689647112470948</v>
+        <v>0.0007506409642840292</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9733569833218638</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5396941256994801</v>
+        <v>0.4186113130132156</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.207270019080909</v>
+        <v>6.019063711546607</v>
       </c>
       <c r="C10">
-        <v>1.006723003342188</v>
+        <v>1.651240096920674</v>
       </c>
       <c r="D10">
-        <v>0.01080391232468614</v>
+        <v>0.004928264640210678</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.844324614823478</v>
+        <v>2.316067811968068</v>
       </c>
       <c r="G10">
-        <v>0.0007563636978895698</v>
+        <v>0.0007359739089737436</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.172464214664188</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4635534303573365</v>
+        <v>0.3416689578557648</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.539062871160809</v>
+        <v>6.503057203570506</v>
       </c>
       <c r="C11">
-        <v>1.086350094260951</v>
+        <v>1.784068825236545</v>
       </c>
       <c r="D11">
-        <v>0.009772220867438008</v>
+        <v>0.004276819288556055</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.974460136850809</v>
+        <v>2.497333009179926</v>
       </c>
       <c r="G11">
-        <v>0.0007507040768455737</v>
+        <v>0.0007293563275053705</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.265200019823254</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4313769354534251</v>
+        <v>0.3092741305919979</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.666020019380312</v>
+        <v>6.688630844040745</v>
       </c>
       <c r="C12">
-        <v>1.116821109521879</v>
+        <v>1.835006394516768</v>
       </c>
       <c r="D12">
-        <v>0.009393342365721757</v>
+        <v>0.004057610380989729</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.024896564138089</v>
+        <v>2.567697345137248</v>
       </c>
       <c r="G12">
-        <v>0.0007485690176032844</v>
+        <v>0.0007268546568928936</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.300684516517705</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4195811641910474</v>
+        <v>0.2974246142325416</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.638615618126096</v>
+        <v>6.648555584092662</v>
       </c>
       <c r="C13">
-        <v>1.110243602558683</v>
+        <v>1.824005787306817</v>
       </c>
       <c r="D13">
-        <v>0.00947439094688729</v>
+        <v>0.004103529322548205</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.013980128179199</v>
+        <v>2.55246210600481</v>
       </c>
       <c r="G13">
-        <v>0.0007490285201390643</v>
+        <v>0.0007273933093545933</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.293024971871816</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4221036991083906</v>
+        <v>0.2999572905987691</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.549480136407965</v>
+        <v>6.518276108420082</v>
       </c>
       <c r="C14">
-        <v>1.088850273486656</v>
+        <v>1.788246018649545</v>
       </c>
       <c r="D14">
-        <v>0.00974080493488394</v>
+        <v>0.004258209336010843</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.978585458069432</v>
+        <v>2.503085825910404</v>
       </c>
       <c r="G14">
-        <v>0.0007505282760210593</v>
+        <v>0.0007291504504038682</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.268111635763759</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4303984825103271</v>
+        <v>0.3082906239981238</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.495059605965196</v>
+        <v>6.438787184166358</v>
       </c>
       <c r="C15">
-        <v>1.075789282850735</v>
+        <v>1.766428741813968</v>
       </c>
       <c r="D15">
-        <v>0.009905573589666261</v>
+        <v>0.004356661270941586</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.957060644057179</v>
+        <v>2.473073886035337</v>
       </c>
       <c r="G15">
-        <v>0.0007514479028946182</v>
+        <v>0.0007302271902997491</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.252901157564864</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4355310197789031</v>
+        <v>0.3134508093120392</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.185759076583679</v>
+        <v>5.987733286396747</v>
       </c>
       <c r="C16">
-        <v>1.001560744463291</v>
+        <v>1.642642464849985</v>
       </c>
       <c r="D16">
-        <v>0.01087290552077924</v>
+        <v>0.004974455999262162</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.835973253227763</v>
+        <v>2.304448394191809</v>
       </c>
       <c r="G16">
-        <v>0.0007567348363937454</v>
+        <v>0.0007364071864863764</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.166451884665179</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4657086392357179</v>
+        <v>0.3438420118385075</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.998133155733797</v>
+        <v>5.714699023235596</v>
       </c>
       <c r="C17">
-        <v>0.9565335011743912</v>
+        <v>1.567719370278041</v>
       </c>
       <c r="D17">
-        <v>0.01148577848650234</v>
+        <v>0.005398020121043068</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.763584396448948</v>
+        <v>2.203792590700274</v>
       </c>
       <c r="G17">
-        <v>0.0007599952325600956</v>
+        <v>0.0007402099915267968</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.114009713957898</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4848753214591639</v>
+        <v>0.3631822420762436</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.890931998468488</v>
+        <v>5.558889645530655</v>
       </c>
       <c r="C18">
-        <v>0.9308062084293738</v>
+        <v>1.524964969865323</v>
       </c>
       <c r="D18">
-        <v>0.01184499426919761</v>
+        <v>0.005656805395529929</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.722597216769927</v>
+        <v>2.146845252969115</v>
       </c>
       <c r="G18">
-        <v>0.0007618775184353875</v>
+        <v>0.0007424026391895301</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.084045976624537</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4961287295809704</v>
+        <v>0.3745486744638438</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.854752862558826</v>
+        <v>5.506336454861128</v>
       </c>
       <c r="C19">
-        <v>0.9221233349257432</v>
+        <v>1.510544305886583</v>
       </c>
       <c r="D19">
-        <v>0.01196773127698325</v>
+        <v>0.005746921329881971</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.708826844153108</v>
+        <v>2.127719503503585</v>
       </c>
       <c r="G19">
-        <v>0.0007625160955768336</v>
+        <v>0.0007431460561297023</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.07393343781969</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4999773160173007</v>
+        <v>0.3784375863274878</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.018030750913738</v>
+        <v>5.743633868440043</v>
       </c>
       <c r="C20">
-        <v>0.9613086606976822</v>
+        <v>1.575659202204122</v>
       </c>
       <c r="D20">
-        <v>0.01141983343375763</v>
+        <v>0.005351335551520009</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.771222117980841</v>
+        <v>2.21440784182127</v>
       </c>
       <c r="G20">
-        <v>0.0007596474500773687</v>
+        <v>0.0007398046444248587</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.119571224842275</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4828110303820132</v>
+        <v>0.3610980587757258</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.575623999507911</v>
+        <v>6.55647678612246</v>
       </c>
       <c r="C21">
-        <v>1.095124942139307</v>
+        <v>1.798731261853561</v>
       </c>
       <c r="D21">
-        <v>0.00966222008188744</v>
+        <v>0.004211995804114466</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.988949041346885</v>
+        <v>2.517539892522905</v>
       </c>
       <c r="G21">
-        <v>0.0007500875611010795</v>
+        <v>0.00072863425087899</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.275418825959761</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4279512515724164</v>
+        <v>0.3058312121780755</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.947816216834838</v>
+        <v>7.101313786940295</v>
       </c>
       <c r="C22">
-        <v>1.184463732140841</v>
+        <v>1.948304640621984</v>
       </c>
       <c r="D22">
-        <v>0.008583126383228112</v>
+        <v>0.003629870149266523</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.138073504380628</v>
+        <v>2.725842229135196</v>
       </c>
       <c r="G22">
-        <v>0.0007438856352266325</v>
+        <v>0.0007213565505838311</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.379447798770059</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3943828326786019</v>
+        <v>0.2721705655029787</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.74838628965523</v>
+        <v>6.809141383257383</v>
       </c>
       <c r="C23">
-        <v>1.136591012048086</v>
+        <v>1.868088056040563</v>
       </c>
       <c r="D23">
-        <v>0.009152163640284705</v>
+        <v>0.003924218967876314</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.057803578485363</v>
+        <v>2.613642445474966</v>
       </c>
       <c r="G23">
-        <v>0.000747192355553475</v>
+        <v>0.0007252400336447331</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.323706023901607</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4120770407853946</v>
+        <v>0.2898949506516253</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.009032983842587</v>
+        <v>5.730548834138119</v>
       </c>
       <c r="C24">
-        <v>0.9591493181492297</v>
+        <v>1.57206861579283</v>
       </c>
       <c r="D24">
-        <v>0.01144962590657528</v>
+        <v>0.005372394361150334</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.7677671524457</v>
+        <v>2.209605836420806</v>
       </c>
       <c r="G24">
-        <v>0.0007598046579625721</v>
+        <v>0.0007399878817671333</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.11705629072587</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4837435694023497</v>
+        <v>0.3620395503739271</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.238293249773278</v>
+        <v>4.613153112301518</v>
       </c>
       <c r="C25">
-        <v>0.7741391507474589</v>
+        <v>1.265427036414735</v>
       </c>
       <c r="D25">
-        <v>0.01418034307177329</v>
+        <v>0.007503577865275446</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.479267360877088</v>
+        <v>1.809274739080735</v>
       </c>
       <c r="G25">
-        <v>0.0007736836291378961</v>
+        <v>0.0007561118095081914</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9016089760666404</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5697055041183887</v>
+        <v>0.4490046559831757</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.818361643038997</v>
+        <v>1.387082182999791</v>
       </c>
       <c r="C2">
-        <v>1.047180113930835</v>
+        <v>0.3183208541906311</v>
       </c>
       <c r="D2">
-        <v>0.009446620055661548</v>
+        <v>0.02230414481786003</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.537296479560695</v>
+        <v>1.153346434063565</v>
       </c>
       <c r="G2">
-        <v>0.0007682820832066958</v>
+        <v>0.002427394107367429</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5196040929348058</v>
+        <v>1.065748182730892</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.292313659842989</v>
+        <v>1.246956845320142</v>
       </c>
       <c r="C3">
-        <v>0.9025840122034197</v>
+        <v>0.2783575579910007</v>
       </c>
       <c r="D3">
-        <v>0.01095039850890345</v>
+        <v>0.02288450579839374</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.363973783286383</v>
+        <v>1.120154855645808</v>
       </c>
       <c r="G3">
-        <v>0.0007767631359591247</v>
+        <v>0.002432599193044694</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5710096480665339</v>
+        <v>1.084394648645083</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.974149745799139</v>
+        <v>1.161469763897401</v>
       </c>
       <c r="C4">
-        <v>0.8150420894463366</v>
+        <v>0.2538598965445544</v>
       </c>
       <c r="D4">
-        <v>0.01195311645812147</v>
+        <v>0.0232602923208205</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.262061793021715</v>
+        <v>1.100782598082063</v>
       </c>
       <c r="G4">
-        <v>0.0007820990381285106</v>
+        <v>0.002435960986179827</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6041754115872013</v>
+        <v>1.096411244357649</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.845526841282094</v>
+        <v>1.126769461237473</v>
       </c>
       <c r="C5">
-        <v>0.7796278397872527</v>
+        <v>0.2438862792383816</v>
       </c>
       <c r="D5">
-        <v>0.0123799964000888</v>
+        <v>0.02341828002841329</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.221542756198573</v>
+        <v>1.093139313791085</v>
       </c>
       <c r="G5">
-        <v>0.0007843075815822419</v>
+        <v>0.002437372794601322</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6180729195134322</v>
+        <v>1.101450403116342</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.824226346578541</v>
+        <v>1.121015680594155</v>
       </c>
       <c r="C6">
-        <v>0.7737615857750768</v>
+        <v>0.2422307147604954</v>
       </c>
       <c r="D6">
-        <v>0.01245193628931496</v>
+        <v>0.02344480571099172</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.214872269030096</v>
+        <v>1.091885249884768</v>
       </c>
       <c r="G6">
-        <v>0.0007846764194096066</v>
+        <v>0.002437609756344844</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6204031009875646</v>
+        <v>1.102295733697219</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.972411146674744</v>
+        <v>1.161001233959496</v>
       </c>
       <c r="C7">
-        <v>0.8145634941123774</v>
+        <v>0.2537253517504325</v>
       </c>
       <c r="D7">
-        <v>0.01195880167478425</v>
+        <v>0.02326240340421393</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.26151140050338</v>
+        <v>1.100678504527338</v>
       </c>
       <c r="G7">
-        <v>0.0007821286828518792</v>
+        <v>0.002435979856923625</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6043613168704773</v>
+        <v>1.096478628631438</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.635861649558933</v>
+        <v>1.338651442927357</v>
       </c>
       <c r="C8">
-        <v>0.9970328905292263</v>
+        <v>0.3045327969826133</v>
       </c>
       <c r="D8">
-        <v>0.009947564102901651</v>
+        <v>0.02250019546622184</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.47652153195726</v>
+        <v>1.14169148140742</v>
       </c>
       <c r="G8">
-        <v>0.0007711808174090781</v>
+        <v>0.002429154486996137</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5369830184338262</v>
+        <v>1.072059424782573</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.984500478942778</v>
+        <v>1.69150181053169</v>
       </c>
       <c r="C9">
-        <v>1.367346140260338</v>
+        <v>0.404518578020145</v>
       </c>
       <c r="D9">
-        <v>0.006720710477063463</v>
+        <v>0.02116143977373497</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.940117269844976</v>
+        <v>1.230220691425259</v>
       </c>
       <c r="G9">
-        <v>0.0007506409642840292</v>
+        <v>0.002417079216009228</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4186113130132156</v>
+        <v>1.02869546342021</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.019063711546607</v>
+        <v>1.95365370078099</v>
       </c>
       <c r="C10">
-        <v>1.651240096920674</v>
+        <v>0.4782496078823328</v>
       </c>
       <c r="D10">
-        <v>0.004928264640210678</v>
+        <v>0.02027519159223612</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.316067811968068</v>
+        <v>1.300362191804169</v>
       </c>
       <c r="G10">
-        <v>0.0007359739089737436</v>
+        <v>0.002408996290415925</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3416689578557648</v>
+        <v>0.9996171040946376</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.503057203570506</v>
+        <v>2.073587468012079</v>
       </c>
       <c r="C11">
-        <v>1.784068825236545</v>
+        <v>0.5118635238475235</v>
       </c>
       <c r="D11">
-        <v>0.004276819288556055</v>
+        <v>0.01989364969560281</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.497333009179926</v>
+        <v>1.333413815362775</v>
       </c>
       <c r="G11">
-        <v>0.0007293563275053705</v>
+        <v>0.002405488426891303</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3092741305919979</v>
+        <v>0.9869978592314776</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.688630844040745</v>
+        <v>2.119103845253392</v>
       </c>
       <c r="C12">
-        <v>1.835006394516768</v>
+        <v>0.524603681369797</v>
       </c>
       <c r="D12">
-        <v>0.004057610380989729</v>
+        <v>0.01975232162983431</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.567697345137248</v>
+        <v>1.346096830252151</v>
       </c>
       <c r="G12">
-        <v>0.0007268546568928936</v>
+        <v>0.00240418425299315</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2974246142325416</v>
+        <v>0.9823072994363713</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.648555584092662</v>
+        <v>2.109296590859628</v>
       </c>
       <c r="C13">
-        <v>1.824005787306817</v>
+        <v>0.5218593458553187</v>
       </c>
       <c r="D13">
-        <v>0.004103529322548205</v>
+        <v>0.01978261817443183</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.55246210600481</v>
+        <v>1.343357843459785</v>
       </c>
       <c r="G13">
-        <v>0.0007273933093545933</v>
+        <v>0.002404464057161325</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2999572905987691</v>
+        <v>0.9833135693826538</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.518276108420082</v>
+        <v>2.077330108756144</v>
       </c>
       <c r="C14">
-        <v>1.788246018649545</v>
+        <v>0.5129114334778251</v>
       </c>
       <c r="D14">
-        <v>0.004258209336010843</v>
+        <v>0.01988195908731782</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.503085825910404</v>
+        <v>1.334453891106449</v>
       </c>
       <c r="G14">
-        <v>0.0007291504504038682</v>
+        <v>0.002405380648057408</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3082906239981238</v>
+        <v>0.9866101957170343</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.438787184166358</v>
+        <v>2.057762816958814</v>
       </c>
       <c r="C15">
-        <v>1.766428741813968</v>
+        <v>0.5074320726979522</v>
       </c>
       <c r="D15">
-        <v>0.004356661270941586</v>
+        <v>0.01994322030413898</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.473073886035337</v>
+        <v>1.329021799644579</v>
       </c>
       <c r="G15">
-        <v>0.0007302271902997491</v>
+        <v>0.00240594523075575</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.3134508093120392</v>
+        <v>0.988640960963755</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.987733286396747</v>
+        <v>1.945829620588199</v>
       </c>
       <c r="C16">
-        <v>1.642642464849985</v>
+        <v>0.4760543987545702</v>
       </c>
       <c r="D16">
-        <v>0.004974455999262162</v>
+        <v>0.0203005650751491</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.304448394191809</v>
+        <v>1.298225429489577</v>
       </c>
       <c r="G16">
-        <v>0.0007364071864863764</v>
+        <v>0.002409228928693218</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3438420118385075</v>
+        <v>1.000454095877165</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.714699023235596</v>
+        <v>1.877337932089574</v>
       </c>
       <c r="C17">
-        <v>1.567719370278041</v>
+        <v>0.456824519846009</v>
       </c>
       <c r="D17">
-        <v>0.005398020121043068</v>
+        <v>0.02052535294505109</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.203792590700274</v>
+        <v>1.279627668674294</v>
       </c>
       <c r="G17">
-        <v>0.0007402099915267968</v>
+        <v>0.002411286582599758</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3631822420762436</v>
+        <v>1.007857349808079</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.558889645530655</v>
+        <v>1.838007144351991</v>
       </c>
       <c r="C18">
-        <v>1.524964969865323</v>
+        <v>0.4457708553816246</v>
       </c>
       <c r="D18">
-        <v>0.005656805395529929</v>
+        <v>0.02065667691800588</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.146845252969115</v>
+        <v>1.26903824145954</v>
       </c>
       <c r="G18">
-        <v>0.0007424026391895301</v>
+        <v>0.002412486015664983</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3745486744638438</v>
+        <v>1.012172760759583</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.506336454861128</v>
+        <v>1.82470130600467</v>
       </c>
       <c r="C19">
-        <v>1.510544305886583</v>
+        <v>0.4420294287715478</v>
       </c>
       <c r="D19">
-        <v>0.005746921329881971</v>
+        <v>0.02070148858447407</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.127719503503585</v>
+        <v>1.265471230347643</v>
       </c>
       <c r="G19">
-        <v>0.0007431460561297023</v>
+        <v>0.002412894862193427</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3784375863274878</v>
+        <v>1.01364370172212</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.743633868440043</v>
+        <v>1.884622367321754</v>
       </c>
       <c r="C20">
-        <v>1.575659202204122</v>
+        <v>0.4588708585620793</v>
       </c>
       <c r="D20">
-        <v>0.005351335551520009</v>
+        <v>0.02050121327106602</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.21440784182127</v>
+        <v>1.281596286217081</v>
       </c>
       <c r="G20">
-        <v>0.0007398046444248587</v>
+        <v>0.00241106589492569</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3610980587757258</v>
+        <v>1.007063331142108</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.55647678612246</v>
+        <v>2.086716704835055</v>
       </c>
       <c r="C21">
-        <v>1.798731261853561</v>
+        <v>0.5155393395431815</v>
       </c>
       <c r="D21">
-        <v>0.004211995804114466</v>
+        <v>0.01985269430243974</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.517539892522905</v>
+        <v>1.337064642384888</v>
       </c>
       <c r="G21">
-        <v>0.00072863425087899</v>
+        <v>0.0024051107678359</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.3058312121780755</v>
+        <v>0.9856395018891142</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.101313786940295</v>
+        <v>2.21938140196437</v>
       </c>
       <c r="C22">
-        <v>1.948304640621984</v>
+        <v>0.5526416773549272</v>
       </c>
       <c r="D22">
-        <v>0.003629870149266523</v>
+        <v>0.01944725257777602</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.725842229135196</v>
+        <v>1.37429152735001</v>
       </c>
       <c r="G22">
-        <v>0.0007213565505838311</v>
+        <v>0.00240135961168756</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2721705655029787</v>
+        <v>0.9721514191360203</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.809141383257383</v>
+        <v>2.148521499404637</v>
       </c>
       <c r="C23">
-        <v>1.868088056040563</v>
+        <v>0.532833149412852</v>
       </c>
       <c r="D23">
-        <v>0.003924218967876314</v>
+        <v>0.01966194548316658</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.613642445474966</v>
+        <v>1.354332751996878</v>
       </c>
       <c r="G23">
-        <v>0.0007252400336447331</v>
+        <v>0.002403348830829871</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.2898949506516253</v>
+        <v>0.9793030807515279</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.730548834138119</v>
+        <v>1.88132893106075</v>
       </c>
       <c r="C24">
-        <v>1.57206861579283</v>
+        <v>0.4579457031262564</v>
       </c>
       <c r="D24">
-        <v>0.005372394361150334</v>
+        <v>0.02051212030954908</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.209605836420806</v>
+        <v>1.280705954617375</v>
       </c>
       <c r="G24">
-        <v>0.0007399878817671333</v>
+        <v>0.002411165616465798</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3620395503739271</v>
+        <v>1.007422122685034</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.613153112301518</v>
+        <v>1.595548276855197</v>
       </c>
       <c r="C25">
-        <v>1.265427036414735</v>
+        <v>0.3774262368228847</v>
       </c>
       <c r="D25">
-        <v>0.007503577865275446</v>
+        <v>0.0215066826389041</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.809274739080735</v>
+        <v>1.205387353482024</v>
       </c>
       <c r="G25">
-        <v>0.0007561118095081914</v>
+        <v>0.002420206703768194</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4490046559831757</v>
+        <v>1.03993996558367</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.387082182999791</v>
+        <v>3.818361643038997</v>
       </c>
       <c r="C2">
-        <v>0.3183208541906311</v>
+        <v>1.047180113930807</v>
       </c>
       <c r="D2">
-        <v>0.02230414481786003</v>
+        <v>0.009446620055600263</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.153346434063565</v>
+        <v>1.53729647956068</v>
       </c>
       <c r="G2">
-        <v>0.002427394107367429</v>
+        <v>0.0007682820832230982</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.065748182730892</v>
+        <v>0.5196040929347561</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.246956845320142</v>
+        <v>3.292313659843046</v>
       </c>
       <c r="C3">
-        <v>0.2783575579910007</v>
+        <v>0.9025840122034481</v>
       </c>
       <c r="D3">
-        <v>0.02288450579839374</v>
+        <v>0.01095039850898072</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.120154855645808</v>
+        <v>1.363973783286369</v>
       </c>
       <c r="G3">
-        <v>0.002432599193044694</v>
+        <v>0.0007767631360281131</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.084394648645083</v>
+        <v>0.5710096480664681</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.161469763897401</v>
+        <v>2.974149745798968</v>
       </c>
       <c r="C4">
-        <v>0.2538598965445544</v>
+        <v>0.8150420894462229</v>
       </c>
       <c r="D4">
-        <v>0.0232602923208205</v>
+        <v>0.0119531164580069</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.100782598082063</v>
+        <v>1.262061793021701</v>
       </c>
       <c r="G4">
-        <v>0.002435960986179827</v>
+        <v>0.0007820990380995725</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.096411244357649</v>
+        <v>0.6041754115872635</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.126769461237473</v>
+        <v>2.845526841282094</v>
       </c>
       <c r="C5">
-        <v>0.2438862792383816</v>
+        <v>0.7796278397871106</v>
       </c>
       <c r="D5">
-        <v>0.02341828002841329</v>
+        <v>0.01237999640016341</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.093139313791085</v>
+        <v>1.221542756198559</v>
       </c>
       <c r="G5">
-        <v>0.002437372794601322</v>
+        <v>0.0007843075815925323</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.101450403116342</v>
+        <v>0.6180729195134216</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.121015680594155</v>
+        <v>2.824226346578598</v>
       </c>
       <c r="C6">
-        <v>0.2422307147604954</v>
+        <v>0.7737615857750768</v>
       </c>
       <c r="D6">
-        <v>0.02344480571099172</v>
+        <v>0.01245193628920838</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.091885249884768</v>
+        <v>1.214872269030096</v>
       </c>
       <c r="G6">
-        <v>0.002437609756344844</v>
+        <v>0.0007846764193705398</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.102295733697219</v>
+        <v>0.6204031009876392</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.161001233959496</v>
+        <v>2.972411146674744</v>
       </c>
       <c r="C7">
-        <v>0.2537253517504325</v>
+        <v>0.8145634941122353</v>
       </c>
       <c r="D7">
-        <v>0.02326240340421393</v>
+        <v>0.01195880167486774</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.100678504527338</v>
+        <v>1.26151140050338</v>
       </c>
       <c r="G7">
-        <v>0.002435979856923625</v>
+        <v>0.0007821286828529689</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.096478628631438</v>
+        <v>0.6043613168704791</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.338651442927357</v>
+        <v>3.635861649558933</v>
       </c>
       <c r="C8">
-        <v>0.3045327969826133</v>
+        <v>0.9970328905291126</v>
       </c>
       <c r="D8">
-        <v>0.02250019546622184</v>
+        <v>0.009947564102906981</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.14169148140742</v>
+        <v>1.476521531957232</v>
       </c>
       <c r="G8">
-        <v>0.002429154486996137</v>
+        <v>0.0007711808174101952</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.072059424782573</v>
+        <v>0.5369830184337765</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.69150181053169</v>
+        <v>4.984500478942778</v>
       </c>
       <c r="C9">
-        <v>0.404518578020145</v>
+        <v>1.367346140260338</v>
       </c>
       <c r="D9">
-        <v>0.02116143977373497</v>
+        <v>0.006720710477146064</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.230220691425259</v>
+        <v>1.940117269845004</v>
       </c>
       <c r="G9">
-        <v>0.002417079216009228</v>
+        <v>0.0007506409642813865</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.02869546342021</v>
+        <v>0.4186113130131943</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.95365370078099</v>
+        <v>6.019063711546494</v>
       </c>
       <c r="C10">
-        <v>0.4782496078823328</v>
+        <v>1.651240096920901</v>
       </c>
       <c r="D10">
-        <v>0.02027519159223612</v>
+        <v>0.004928264640100544</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.300362191804169</v>
+        <v>2.316067811968082</v>
       </c>
       <c r="G10">
-        <v>0.002408996290415925</v>
+        <v>0.0007359739089721762</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9996171040946376</v>
+        <v>0.341668957855747</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.073587468012079</v>
+        <v>6.503057203570563</v>
       </c>
       <c r="C11">
-        <v>0.5118635238475235</v>
+        <v>1.784068825236716</v>
       </c>
       <c r="D11">
-        <v>0.01989364969560281</v>
+        <v>0.004276819288445033</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.333413815362775</v>
+        <v>2.497333009179926</v>
       </c>
       <c r="G11">
-        <v>0.002405488426891303</v>
+        <v>0.0007293563274495417</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9869978592314776</v>
+        <v>0.3092741305920459</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.119103845253392</v>
+        <v>6.688630844040631</v>
       </c>
       <c r="C12">
-        <v>0.524603681369797</v>
+        <v>1.83500639451637</v>
       </c>
       <c r="D12">
-        <v>0.01975232162983431</v>
+        <v>0.004057610380766796</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.346096830252151</v>
+        <v>2.567697345137248</v>
       </c>
       <c r="G12">
-        <v>0.00240418425299315</v>
+        <v>0.0007268546568369383</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9823072994363713</v>
+        <v>0.2974246142324795</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.109296590859628</v>
+        <v>6.648555584092946</v>
       </c>
       <c r="C13">
-        <v>0.5218593458553187</v>
+        <v>1.82400578730693</v>
       </c>
       <c r="D13">
-        <v>0.01978261817443183</v>
+        <v>0.004103529322533106</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.343357843459785</v>
+        <v>2.55246210600481</v>
       </c>
       <c r="G13">
-        <v>0.002404464057161325</v>
+        <v>0.0007273933093522934</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9833135693826538</v>
+        <v>0.2999572905987495</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.077330108756144</v>
+        <v>6.518276108420025</v>
       </c>
       <c r="C14">
-        <v>0.5129114334778251</v>
+        <v>1.788246018649602</v>
       </c>
       <c r="D14">
-        <v>0.01988195908731782</v>
+        <v>0.004258209336010843</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.334453891106449</v>
+        <v>2.503085825910404</v>
       </c>
       <c r="G14">
-        <v>0.002405380648057408</v>
+        <v>0.00072915045045986</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9866101957170343</v>
+        <v>0.3082906239981291</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.057762816958814</v>
+        <v>6.438787184166301</v>
       </c>
       <c r="C15">
-        <v>0.5074320726979522</v>
+        <v>1.766428741814025</v>
       </c>
       <c r="D15">
-        <v>0.01994322030413898</v>
+        <v>0.004356661270725759</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.329021799644579</v>
+        <v>2.473073886035337</v>
       </c>
       <c r="G15">
-        <v>0.00240594523075575</v>
+        <v>0.0007302271903548061</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.988640960963755</v>
+        <v>0.3134508093120427</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.945829620588199</v>
+        <v>5.987733286396747</v>
       </c>
       <c r="C16">
-        <v>0.4760543987545702</v>
+        <v>1.642642464850042</v>
       </c>
       <c r="D16">
-        <v>0.0203005650751491</v>
+        <v>0.004974455999167127</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.298225429489577</v>
+        <v>2.304448394191795</v>
       </c>
       <c r="G16">
-        <v>0.002409228928693218</v>
+        <v>0.0007364071864885679</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.000454095877165</v>
+        <v>0.3438420118385164</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.877337932089574</v>
+        <v>5.714699023235596</v>
       </c>
       <c r="C17">
-        <v>0.456824519846009</v>
+        <v>1.567719370278269</v>
       </c>
       <c r="D17">
-        <v>0.02052535294505109</v>
+        <v>0.005398020120940039</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.279627668674294</v>
+        <v>2.20379259070026</v>
       </c>
       <c r="G17">
-        <v>0.002411286582599758</v>
+        <v>0.0007402099915268435</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.007857349808079</v>
+        <v>0.3631822420762489</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.838007144351991</v>
+        <v>5.558889645530599</v>
       </c>
       <c r="C18">
-        <v>0.4457708553816246</v>
+        <v>1.524964969864982</v>
       </c>
       <c r="D18">
-        <v>0.02065667691800588</v>
+        <v>0.00565680539541713</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.26903824145954</v>
+        <v>2.146845252969115</v>
       </c>
       <c r="G18">
-        <v>0.002412486015664983</v>
+        <v>0.0007424026392415239</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.012172760759583</v>
+        <v>0.3745486744638438</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.82470130600467</v>
+        <v>5.506336454861071</v>
       </c>
       <c r="C19">
-        <v>0.4420294287715478</v>
+        <v>1.510544305886754</v>
       </c>
       <c r="D19">
-        <v>0.02070148858447407</v>
+        <v>0.005746921329862431</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.265471230347643</v>
+        <v>2.127719503503599</v>
       </c>
       <c r="G19">
-        <v>0.002412894862193427</v>
+        <v>0.0007431460562354886</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.01364370172212</v>
+        <v>0.3784375863274612</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.884622367321754</v>
+        <v>5.743633868439929</v>
       </c>
       <c r="C20">
-        <v>0.4588708585620793</v>
+        <v>1.575659202203497</v>
       </c>
       <c r="D20">
-        <v>0.02050121327106602</v>
+        <v>0.005351335551739389</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.281596286217081</v>
+        <v>2.214407841821256</v>
       </c>
       <c r="G20">
-        <v>0.00241106589492569</v>
+        <v>0.0007398046444254736</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.007063331142108</v>
+        <v>0.3610980587757417</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.086716704835055</v>
+        <v>6.556476786122346</v>
       </c>
       <c r="C21">
-        <v>0.5155393395431815</v>
+        <v>1.798731261853504</v>
       </c>
       <c r="D21">
-        <v>0.01985269430243974</v>
+        <v>0.004211995804019431</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.337064642384888</v>
+        <v>2.517539892522962</v>
       </c>
       <c r="G21">
-        <v>0.0024051107678359</v>
+        <v>0.000728634250937045</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9856395018891142</v>
+        <v>0.3058312121780862</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.21938140196437</v>
+        <v>7.101313786940466</v>
       </c>
       <c r="C22">
-        <v>0.5526416773549272</v>
+        <v>1.9483046406217</v>
       </c>
       <c r="D22">
-        <v>0.01944725257777602</v>
+        <v>0.003629870149264747</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.37429152735001</v>
+        <v>2.725842229135168</v>
       </c>
       <c r="G22">
-        <v>0.00240135961168756</v>
+        <v>0.0007213565506398587</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9721514191360203</v>
+        <v>0.2721705655030338</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.148521499404637</v>
+        <v>6.809141383257327</v>
       </c>
       <c r="C23">
-        <v>0.532833149412852</v>
+        <v>1.868088056040392</v>
       </c>
       <c r="D23">
-        <v>0.01966194548316658</v>
+        <v>0.003924218967853221</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.354332751996878</v>
+        <v>2.613642445474994</v>
       </c>
       <c r="G23">
-        <v>0.002403348830829871</v>
+        <v>0.0007252400336960352</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9793030807515279</v>
+        <v>0.2898949506516537</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.88132893106075</v>
+        <v>5.730548834138233</v>
       </c>
       <c r="C24">
-        <v>0.4579457031262564</v>
+        <v>1.572068615793</v>
       </c>
       <c r="D24">
-        <v>0.02051212030954908</v>
+        <v>0.005372394360943389</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.280705954617375</v>
+        <v>2.20960583642082</v>
       </c>
       <c r="G24">
-        <v>0.002411165616465798</v>
+        <v>0.0007399878818241987</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.007422122685034</v>
+        <v>0.3620395503738845</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.595548276855197</v>
+        <v>4.613153112301745</v>
       </c>
       <c r="C25">
-        <v>0.3774262368228847</v>
+        <v>1.265427036414792</v>
       </c>
       <c r="D25">
-        <v>0.0215066826389041</v>
+        <v>0.007503577865176858</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.205387353482024</v>
+        <v>1.809274739080692</v>
       </c>
       <c r="G25">
-        <v>0.002420206703768194</v>
+        <v>0.0007561118094902216</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.03993996558367</v>
+        <v>0.4490046559831864</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.818361643038997</v>
+        <v>0.9011252637129132</v>
       </c>
       <c r="C2">
-        <v>1.047180113930807</v>
+        <v>0.1884419897089344</v>
       </c>
       <c r="D2">
-        <v>0.009446620055600263</v>
+        <v>0.07569329332137187</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.53729647956068</v>
+        <v>0.4586307957640798</v>
       </c>
       <c r="G2">
-        <v>0.0007682820832230982</v>
+        <v>0.3573275343007296</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.000466815171471513</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3131433515758175</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2750524578779761</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.024315481916659</v>
       </c>
       <c r="N2">
-        <v>0.5196040929347561</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.7653865886029045</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.292313659843046</v>
+        <v>0.7837491524749112</v>
       </c>
       <c r="C3">
-        <v>0.9025840122034481</v>
+        <v>0.1648912607250566</v>
       </c>
       <c r="D3">
-        <v>0.01095039850898072</v>
+        <v>0.06824843154505089</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.363973783286369</v>
+        <v>0.4391217097052831</v>
       </c>
       <c r="G3">
-        <v>0.0007767631360281131</v>
+        <v>0.347033667260213</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0004789134930072159</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3137101861301304</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2782955832362646</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8910784044461195</v>
       </c>
       <c r="N3">
-        <v>0.5710096480664681</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.795143526025182</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.974149745798968</v>
+        <v>0.7113624364006057</v>
       </c>
       <c r="C4">
-        <v>0.8150420894462229</v>
+        <v>0.1506139223324112</v>
       </c>
       <c r="D4">
-        <v>0.0119531164580069</v>
+        <v>0.06368484359142457</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.262061793021701</v>
+        <v>0.4277444367639518</v>
       </c>
       <c r="G4">
-        <v>0.0007820990380995725</v>
+        <v>0.341248304869886</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0006816197411061431</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3144168268789258</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2805818707133909</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8092485471097461</v>
       </c>
       <c r="N4">
-        <v>0.6041754115872635</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.8142299957508143</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.845526841282094</v>
+        <v>0.6810275913792054</v>
       </c>
       <c r="C5">
-        <v>0.7796278397871106</v>
+        <v>0.1451584456570458</v>
       </c>
       <c r="D5">
-        <v>0.01237999640016341</v>
+        <v>0.06189871948027559</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.221542756198559</v>
+        <v>0.4227574815546973</v>
       </c>
       <c r="G5">
-        <v>0.0007843075815925323</v>
+        <v>0.3385276770324239</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0008795372144221325</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3145372138762568</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2812494654168489</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7757283280265028</v>
       </c>
       <c r="N5">
-        <v>0.6180729195134216</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.8222630885869648</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.824226346578598</v>
+        <v>0.6750630909480151</v>
       </c>
       <c r="C6">
-        <v>0.7737615857750768</v>
+        <v>0.144649384681685</v>
       </c>
       <c r="D6">
-        <v>0.01245193628920838</v>
+        <v>0.06169075030258142</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.214872269030096</v>
+        <v>0.4213338122458197</v>
       </c>
       <c r="G6">
-        <v>0.0007846764193705398</v>
+        <v>0.3374840925685305</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001006486405207063</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3142511877334115</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.280954938330467</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7699651990947132</v>
       </c>
       <c r="N6">
-        <v>0.6204031009876392</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.8236792733284481</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.972411146674744</v>
+        <v>0.708425148066226</v>
       </c>
       <c r="C7">
-        <v>0.8145634941122353</v>
+        <v>0.1516195932816089</v>
       </c>
       <c r="D7">
-        <v>0.01195880167486774</v>
+        <v>0.06390350629221331</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.26151140050338</v>
+        <v>0.4260264851497766</v>
       </c>
       <c r="G7">
-        <v>0.0007821286828529689</v>
+        <v>0.3395740690019338</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0009176849483392147</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3135693617117639</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2794728678304175</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8082585279054513</v>
       </c>
       <c r="N7">
-        <v>0.6043613168704791</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.8145452962888662</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.635861649558933</v>
+        <v>0.8573350117280256</v>
       </c>
       <c r="C8">
-        <v>0.9970328905291126</v>
+        <v>0.1817214133552767</v>
       </c>
       <c r="D8">
-        <v>0.009947564102906981</v>
+        <v>0.07345000329314644</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.476521531957232</v>
+        <v>0.4495918542698547</v>
       </c>
       <c r="G8">
-        <v>0.0007711808174101952</v>
+        <v>0.3514997076056261</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0007062672676507731</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3121459734952552</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2746378746118019</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.977651769444833</v>
       </c>
       <c r="N8">
-        <v>0.5369830184337765</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.7758221359168331</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.984500478942778</v>
+        <v>1.151583973687138</v>
       </c>
       <c r="C9">
-        <v>1.367346140260338</v>
+        <v>0.2404815451956068</v>
       </c>
       <c r="D9">
-        <v>0.006720710477146064</v>
+        <v>0.09181516386523469</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.940117269845004</v>
+        <v>0.5038974584787894</v>
       </c>
       <c r="G9">
-        <v>0.0007506409642813865</v>
+        <v>0.3823958851928495</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001611610369363525</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3138544934155902</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2696065006473454</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.311051774854946</v>
       </c>
       <c r="N9">
-        <v>0.4186113130131943</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.7061054098346204</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.019063711546494</v>
+        <v>1.365303722469321</v>
       </c>
       <c r="C10">
-        <v>1.651240096920901</v>
+        <v>0.2855743976927698</v>
       </c>
       <c r="D10">
-        <v>0.004928264640100544</v>
+        <v>0.1055265516418089</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.316067811968082</v>
+        <v>0.5466612243331852</v>
       </c>
       <c r="G10">
-        <v>0.0007359739089721762</v>
+        <v>0.4075852932292463</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.003579491073598007</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3167389856500193</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2670558125218108</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.556493760118059</v>
       </c>
       <c r="N10">
-        <v>0.341668957855747</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.659539255368319</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.503057203570563</v>
+        <v>1.458036710730198</v>
       </c>
       <c r="C11">
-        <v>1.784068825236716</v>
+        <v>0.3083010525982672</v>
       </c>
       <c r="D11">
-        <v>0.004276819288445033</v>
+        <v>0.1122127945697144</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.497333009179926</v>
+        <v>0.5643554987856021</v>
       </c>
       <c r="G11">
-        <v>0.0007293563274495417</v>
+        <v>0.4172268324143573</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.005124789541305574</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3171932563880802</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2645332859983078</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.667531659464061</v>
       </c>
       <c r="N11">
-        <v>0.3092741305920459</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.6401159854152318</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.688630844040631</v>
+        <v>1.495408863013239</v>
       </c>
       <c r="C12">
-        <v>1.83500639451637</v>
+        <v>0.315997902817486</v>
       </c>
       <c r="D12">
-        <v>0.004057610380766796</v>
+        <v>0.1145283768267831</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.567697345137248</v>
+        <v>0.5726306425075833</v>
       </c>
       <c r="G12">
-        <v>0.0007268546568369383</v>
+        <v>0.4224197468710145</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.005571511593711165</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3181625169856659</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2645867757581328</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.710132549623523</v>
       </c>
       <c r="N12">
-        <v>0.2974246142324795</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.6325692058842876</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.648555584092946</v>
+        <v>1.487820588227237</v>
       </c>
       <c r="C13">
-        <v>1.82400578730693</v>
+        <v>0.3141411690360485</v>
       </c>
       <c r="D13">
-        <v>0.004103529322533106</v>
+        <v>0.1139846534460389</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.55246210600481</v>
+        <v>0.571129209388026</v>
       </c>
       <c r="G13">
-        <v>0.0007273933093522934</v>
+        <v>0.4215788392990731</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.005433367863808769</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3180950429089222</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2647618404140601</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.701054935250113</v>
       </c>
       <c r="N13">
-        <v>0.2999572905987495</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.6341127628388108</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.518276108420025</v>
+        <v>1.461306803584677</v>
       </c>
       <c r="C14">
-        <v>1.788246018649602</v>
+        <v>0.3088496668697758</v>
       </c>
       <c r="D14">
-        <v>0.004258209336010843</v>
+        <v>0.112384182289091</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.503085825910404</v>
+        <v>0.5651554017687843</v>
       </c>
       <c r="G14">
-        <v>0.00072915045045986</v>
+        <v>0.4177717809227062</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00514334731986299</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3173329462943855</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2646168896413172</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.671077651492993</v>
       </c>
       <c r="N14">
-        <v>0.3082906239981291</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.6394604515852507</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.438787184166301</v>
+        <v>1.444160524564722</v>
       </c>
       <c r="C15">
-        <v>1.766428741814025</v>
+        <v>0.3060030271695666</v>
       </c>
       <c r="D15">
-        <v>0.004356661270725759</v>
+        <v>0.1114926094645341</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.473073886035337</v>
+        <v>0.5609498637535211</v>
       </c>
       <c r="G15">
-        <v>0.0007302271903548061</v>
+        <v>0.4148993228372859</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.005054732155864272</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3165911242945185</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2641635192608227</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.652527325432629</v>
       </c>
       <c r="N15">
-        <v>0.3134508093120427</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.642901878283908</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.987733286396747</v>
+        <v>1.351642900307326</v>
       </c>
       <c r="C16">
-        <v>1.642642464850042</v>
+        <v>0.2873398962330782</v>
       </c>
       <c r="D16">
-        <v>0.004974455999167127</v>
+        <v>0.1058292965095973</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.304448394191795</v>
+        <v>0.5407520556981495</v>
       </c>
       <c r="G16">
-        <v>0.0007364071864885679</v>
+        <v>0.4022622821841964</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.004132465955430931</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3143108012199889</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2640729004202598</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.54759628239259</v>
       </c>
       <c r="N16">
-        <v>0.3438420118385164</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.6619976532348844</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.714699023235596</v>
+        <v>1.294880824673726</v>
       </c>
       <c r="C17">
-        <v>1.567719370278269</v>
+        <v>0.2759778199240372</v>
       </c>
       <c r="D17">
-        <v>0.005398020120940039</v>
+        <v>0.102359578756932</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.20379259070026</v>
+        <v>0.5286284743817049</v>
       </c>
       <c r="G17">
-        <v>0.0007402099915268435</v>
+        <v>0.394751830297821</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.003653212467908951</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3130519668391827</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2641386808098432</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.483324602809546</v>
       </c>
       <c r="N17">
-        <v>0.3631822420762489</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.6739759694626954</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.558889645530599</v>
+        <v>1.264518082978867</v>
       </c>
       <c r="C18">
-        <v>1.524964969864982</v>
+        <v>0.268489377746107</v>
       </c>
       <c r="D18">
-        <v>0.00565680539541713</v>
+        <v>0.1001418530501397</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.146845252969115</v>
+        <v>0.5231917348885062</v>
       </c>
       <c r="G18">
-        <v>0.0007424026392415239</v>
+        <v>0.391939973317406</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.003172641109842722</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3131065487496869</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2651722831914114</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.446885846119585</v>
       </c>
       <c r="N18">
-        <v>0.3745486744638438</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.6806130642668826</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.506336454861071</v>
+        <v>1.252470353922263</v>
       </c>
       <c r="C19">
-        <v>1.510544305886754</v>
+        <v>0.2667170333416067</v>
       </c>
       <c r="D19">
-        <v>0.005746921329862431</v>
+        <v>0.09956358468581072</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.127719503503599</v>
+        <v>0.5202542315080692</v>
       </c>
       <c r="G19">
-        <v>0.0007431460562354886</v>
+        <v>0.3899046441478475</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003193246178405218</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3125712793236346</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2647944655537628</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.434170884853557</v>
       </c>
       <c r="N19">
-        <v>0.3784375863274612</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.6831440336974381</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.743633868439929</v>
+        <v>1.301103512291519</v>
       </c>
       <c r="C20">
-        <v>1.575659202203497</v>
+        <v>0.2771068983229128</v>
       </c>
       <c r="D20">
-        <v>0.005351335551739389</v>
+        <v>0.1027112047086334</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.214407841821256</v>
+        <v>0.5300223401555257</v>
       </c>
       <c r="G20">
-        <v>0.0007398046444254736</v>
+        <v>0.3956539927455793</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003682347529852414</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3132378982630826</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2642018162427284</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.490201961358025</v>
       </c>
       <c r="N20">
-        <v>0.3610980587757417</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.6726632045866694</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.556476786122346</v>
+        <v>1.466519218669077</v>
       </c>
       <c r="C21">
-        <v>1.798731261853504</v>
+        <v>0.3115038527540719</v>
       </c>
       <c r="D21">
-        <v>0.004211995804019431</v>
+        <v>0.1131054295114069</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.517539892522962</v>
+        <v>0.5652951020561403</v>
       </c>
       <c r="G21">
-        <v>0.000728634250937045</v>
+        <v>0.4172979629431666</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.005462899034548663</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3167435048390956</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2635966640935585</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.679320235573215</v>
       </c>
       <c r="N21">
-        <v>0.3058312121780862</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.6383045763381254</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.101313786940466</v>
+        <v>1.577906755958566</v>
       </c>
       <c r="C22">
-        <v>1.9483046406217</v>
+        <v>0.3328962302090872</v>
       </c>
       <c r="D22">
-        <v>0.003629870149264747</v>
+        <v>0.1195968833128092</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.725842229135168</v>
+        <v>0.5913158887741119</v>
       </c>
       <c r="G22">
-        <v>0.0007213565506398587</v>
+        <v>0.4342968427032332</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.00661914299666222</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3205426800718101</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2649623676277173</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.80401200685489</v>
       </c>
       <c r="N22">
-        <v>0.2721705655030338</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.6162075515791585</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.809141383257327</v>
+        <v>1.52156350171299</v>
       </c>
       <c r="C23">
-        <v>1.868088056040392</v>
+        <v>0.3201209744590017</v>
       </c>
       <c r="D23">
-        <v>0.003924218967853221</v>
+        <v>0.1158275103568798</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.613642445474994</v>
+        <v>0.5792825660003942</v>
       </c>
       <c r="G23">
-        <v>0.0007252400336960352</v>
+        <v>0.4270600969509815</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.005707591581132654</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3194476440006042</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2654745261115288</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.738099774510403</v>
       </c>
       <c r="N23">
-        <v>0.2898949506516537</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.6274096405836573</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.730548834138233</v>
+        <v>1.303145389353233</v>
       </c>
       <c r="C24">
-        <v>1.572068615793</v>
+        <v>0.2745175871908145</v>
       </c>
       <c r="D24">
-        <v>0.005372394360943389</v>
+        <v>0.1020791388084135</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.20960583642082</v>
+        <v>0.5324472320068381</v>
       </c>
       <c r="G24">
-        <v>0.0007399878818241987</v>
+        <v>0.3982609199572664</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.003211967563552243</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3146970580310153</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2661931056130733</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.488144860957419</v>
       </c>
       <c r="N24">
-        <v>0.3620395503738845</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.6725190551296514</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.613153112301745</v>
+        <v>1.067529734058127</v>
       </c>
       <c r="C25">
-        <v>1.265427036414792</v>
+        <v>0.2263663140541183</v>
       </c>
       <c r="D25">
-        <v>0.007503577865176858</v>
+        <v>0.08728662474663906</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.809274739080692</v>
+        <v>0.4856251459930832</v>
       </c>
       <c r="G25">
-        <v>0.0007561118094902216</v>
+        <v>0.3705535720474629</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001562671800751758</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3115384485880384</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2686999580896305</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.219763462139781</v>
       </c>
       <c r="N25">
-        <v>0.4490046559831864</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7248174506997742</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9011252637129132</v>
+        <v>0.8664854683771068</v>
       </c>
       <c r="C2">
-        <v>0.1884419897089344</v>
+        <v>0.1989304310472875</v>
       </c>
       <c r="D2">
-        <v>0.07569329332137187</v>
+        <v>0.0789015070461474</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4586307957640798</v>
+        <v>0.4299760549715756</v>
       </c>
       <c r="G2">
-        <v>0.3573275343007296</v>
+        <v>0.3110102748692469</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.000466815171471513</v>
+        <v>0.0006455803526987935</v>
       </c>
       <c r="J2">
-        <v>0.3131433515758175</v>
+        <v>0.3297249711493535</v>
       </c>
       <c r="K2">
-        <v>0.2750524578779761</v>
+        <v>0.2501911108090731</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1389873764448204</v>
       </c>
       <c r="M2">
-        <v>1.024315481916659</v>
+        <v>0.05880364846721164</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.01772982800702</v>
       </c>
       <c r="P2">
-        <v>0.7653865886029045</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.7569082855647622</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7837491524749112</v>
+        <v>0.7579890253199721</v>
       </c>
       <c r="C3">
-        <v>0.1648912607250566</v>
+        <v>0.1715848934205155</v>
       </c>
       <c r="D3">
-        <v>0.06824843154505089</v>
+        <v>0.07040806210623174</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4391217097052831</v>
+        <v>0.4142489510891352</v>
       </c>
       <c r="G3">
-        <v>0.347033667260213</v>
+        <v>0.3050809119161642</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0004789134930072159</v>
+        <v>0.0005048079014517981</v>
       </c>
       <c r="J3">
-        <v>0.3137101861301304</v>
+        <v>0.3290767062749538</v>
       </c>
       <c r="K3">
-        <v>0.2782955832362646</v>
+        <v>0.2549265970672892</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1442201379710077</v>
       </c>
       <c r="M3">
-        <v>0.8910784044461195</v>
+        <v>0.0583145476676723</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8868769179040044</v>
       </c>
       <c r="P3">
-        <v>0.795143526025182</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.7816145116781428</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7113624364006057</v>
+        <v>0.6908547981060735</v>
       </c>
       <c r="C4">
-        <v>0.1506139223324112</v>
+        <v>0.1550695084788742</v>
       </c>
       <c r="D4">
-        <v>0.06368484359142457</v>
+        <v>0.06521636162995037</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4277444367639518</v>
+        <v>0.4050372805200624</v>
       </c>
       <c r="G4">
-        <v>0.341248304869886</v>
+        <v>0.3019461561680075</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0006816197411061431</v>
+        <v>0.0005747583150852442</v>
       </c>
       <c r="J4">
-        <v>0.3144168268789258</v>
+        <v>0.3288065863203471</v>
       </c>
       <c r="K4">
-        <v>0.2805818707133909</v>
+        <v>0.2580318980854983</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1475635460305043</v>
       </c>
       <c r="M4">
-        <v>0.8092485471097461</v>
+        <v>0.05853986602870442</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8064133896921817</v>
       </c>
       <c r="P4">
-        <v>0.8142299957508143</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7976208772458051</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6810275913792054</v>
+        <v>0.6626420437503384</v>
       </c>
       <c r="C5">
-        <v>0.1451584456570458</v>
+        <v>0.1487328396440546</v>
       </c>
       <c r="D5">
-        <v>0.06189871948027559</v>
+        <v>0.06317856493016905</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4227574815546973</v>
+        <v>0.4009197231265347</v>
       </c>
       <c r="G5">
-        <v>0.3385276770324239</v>
+        <v>0.3003341598217872</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0008795372144221325</v>
+        <v>0.000721237059297053</v>
       </c>
       <c r="J5">
-        <v>0.3145372138762568</v>
+        <v>0.3284770071763035</v>
       </c>
       <c r="K5">
-        <v>0.2812494654168489</v>
+        <v>0.2590387201700608</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1487939929615756</v>
       </c>
       <c r="M5">
-        <v>0.7757283280265028</v>
+        <v>0.05869498762630254</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7734321673900695</v>
       </c>
       <c r="P5">
-        <v>0.8222630885869648</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.8044376348143736</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6750630909480151</v>
+        <v>0.6570641265770973</v>
       </c>
       <c r="C6">
-        <v>0.144649384681685</v>
+        <v>0.1480887927419161</v>
       </c>
       <c r="D6">
-        <v>0.06169075030258142</v>
+        <v>0.06292951193189822</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4213338122458197</v>
+        <v>0.3996687800713019</v>
       </c>
       <c r="G6">
-        <v>0.3374840925685305</v>
+        <v>0.29951855217179</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001006486405207063</v>
+        <v>0.0008551551702273841</v>
       </c>
       <c r="J6">
-        <v>0.3142511877334115</v>
+        <v>0.3281181530307364</v>
       </c>
       <c r="K6">
-        <v>0.280954938330467</v>
+        <v>0.2588351415960961</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1488000628265347</v>
       </c>
       <c r="M6">
-        <v>0.7699651990947132</v>
+        <v>0.05864544512970404</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7677632114732091</v>
       </c>
       <c r="P6">
-        <v>0.8236792733284481</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.8056932008706781</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.708425148066226</v>
+        <v>0.6874925001968961</v>
       </c>
       <c r="C7">
-        <v>0.1516195932816089</v>
+        <v>0.1556273688628096</v>
       </c>
       <c r="D7">
-        <v>0.06390350629221331</v>
+        <v>0.06559586730564604</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4260264851497766</v>
+        <v>0.4024169476682005</v>
       </c>
       <c r="G7">
-        <v>0.3395740690019338</v>
+        <v>0.3025302385663764</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0009176849483392147</v>
+        <v>0.0008526297468174349</v>
       </c>
       <c r="J7">
-        <v>0.3135693617117639</v>
+        <v>0.3241736180337114</v>
       </c>
       <c r="K7">
-        <v>0.2794728678304175</v>
+        <v>0.2566059577026838</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1468293258169915</v>
       </c>
       <c r="M7">
-        <v>0.8082585279054513</v>
+        <v>0.0581996918749077</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8043062807257968</v>
       </c>
       <c r="P7">
-        <v>0.8145452962888662</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.7982317770227354</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8573350117280256</v>
+        <v>0.8240809464905965</v>
       </c>
       <c r="C8">
-        <v>0.1817214133552767</v>
+        <v>0.1893597730148997</v>
       </c>
       <c r="D8">
-        <v>0.07345000329314644</v>
+        <v>0.07684833304138294</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4495918542698547</v>
+        <v>0.4190947927272077</v>
       </c>
       <c r="G8">
-        <v>0.3514997076056261</v>
+        <v>0.3139594673981847</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0007062672676507731</v>
+        <v>0.0008918863808355937</v>
       </c>
       <c r="J8">
-        <v>0.3121459734952552</v>
+        <v>0.3160901462797625</v>
       </c>
       <c r="K8">
-        <v>0.2746378746118019</v>
+        <v>0.2490899788667562</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1394942113227771</v>
       </c>
       <c r="M8">
-        <v>0.977651769444833</v>
+        <v>0.05775126718559243</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9681041676962536</v>
       </c>
       <c r="P8">
-        <v>0.7758221359168331</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.7665616481438242</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.151583973687138</v>
+        <v>1.094314717542375</v>
       </c>
       <c r="C9">
-        <v>0.2404815451956068</v>
+        <v>0.2576013996196735</v>
       </c>
       <c r="D9">
-        <v>0.09181516386523469</v>
+        <v>0.09808701356434568</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5038974584787894</v>
+        <v>0.4620339675258478</v>
       </c>
       <c r="G9">
-        <v>0.3823958851928495</v>
+        <v>0.3356428758056467</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.001611610369363525</v>
+        <v>0.00187869116185535</v>
       </c>
       <c r="J9">
-        <v>0.3138544934155902</v>
+        <v>0.3161308539546184</v>
       </c>
       <c r="K9">
-        <v>0.2696065006473454</v>
+        <v>0.2393164316921705</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.127777157817933</v>
       </c>
       <c r="M9">
-        <v>1.311051774854946</v>
+        <v>0.06198356127210758</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.293772417693674</v>
       </c>
       <c r="P9">
-        <v>0.7061054098346204</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7098549646542125</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.365303722469321</v>
+        <v>1.285948478384711</v>
       </c>
       <c r="C10">
-        <v>0.2855743976927698</v>
+        <v>0.3072789996474512</v>
       </c>
       <c r="D10">
-        <v>0.1055265516418089</v>
+        <v>0.1150148309313579</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5466612243331852</v>
+        <v>0.4898374645972297</v>
       </c>
       <c r="G10">
-        <v>0.4075852932292463</v>
+        <v>0.3668264158419561</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.003579491073598007</v>
+        <v>0.003659886384864919</v>
       </c>
       <c r="J10">
-        <v>0.3167389856500193</v>
+        <v>0.2964485125624634</v>
       </c>
       <c r="K10">
-        <v>0.2670558125218108</v>
+        <v>0.2305292703727524</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1188651287936704</v>
       </c>
       <c r="M10">
-        <v>1.556493760118059</v>
+        <v>0.06661287130507176</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.525952917162414</v>
       </c>
       <c r="P10">
-        <v>0.659539255368319</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.6749640005548478</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.458036710730198</v>
+        <v>1.362611080922306</v>
       </c>
       <c r="C11">
-        <v>0.3083010525982672</v>
+        <v>0.3271435056945222</v>
       </c>
       <c r="D11">
-        <v>0.1122127945697144</v>
+        <v>0.1250529956901261</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5643554987856021</v>
+        <v>0.4906361438184277</v>
       </c>
       <c r="G11">
-        <v>0.4172268324143573</v>
+        <v>0.4030273650704572</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.005124789541305574</v>
+        <v>0.005091535206045883</v>
       </c>
       <c r="J11">
-        <v>0.3171932563880802</v>
+        <v>0.2563172261081519</v>
       </c>
       <c r="K11">
-        <v>0.2645332859983078</v>
+        <v>0.221398751742651</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1132198243002787</v>
       </c>
       <c r="M11">
-        <v>1.667531659464061</v>
+        <v>0.06693450032933868</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.61850770023355</v>
       </c>
       <c r="P11">
-        <v>0.6401159854152318</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.6651208205542574</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.495408863013239</v>
+        <v>1.392942935036444</v>
       </c>
       <c r="C12">
-        <v>0.315997902817486</v>
+        <v>0.3330801306089484</v>
       </c>
       <c r="D12">
-        <v>0.1145283768267831</v>
+        <v>0.1288870619865321</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5726306425075833</v>
+        <v>0.4910830648701747</v>
       </c>
       <c r="G12">
-        <v>0.4224197468710145</v>
+        <v>0.4217193525698519</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.005571511593711165</v>
+        <v>0.005432876695982358</v>
       </c>
       <c r="J12">
-        <v>0.3181625169856659</v>
+        <v>0.2400043584434215</v>
       </c>
       <c r="K12">
-        <v>0.2645867757581328</v>
+        <v>0.2183054048369932</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1112698646406773</v>
       </c>
       <c r="M12">
-        <v>1.710132549623523</v>
+        <v>0.06722131242574392</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.652462443867904</v>
       </c>
       <c r="P12">
-        <v>0.6325692058842876</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.6616279177903621</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.487820588227237</v>
+        <v>1.386880406892374</v>
       </c>
       <c r="C13">
-        <v>0.3141411690360485</v>
+        <v>0.3316259427316481</v>
       </c>
       <c r="D13">
-        <v>0.1139846534460389</v>
+        <v>0.1280019266164913</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.571129209388026</v>
+        <v>0.4912958696856009</v>
       </c>
       <c r="G13">
-        <v>0.4215788392990731</v>
+        <v>0.417796963006154</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.005433367863808769</v>
+        <v>0.005308651595642644</v>
       </c>
       <c r="J13">
-        <v>0.3180950429089222</v>
+        <v>0.2436436079935618</v>
       </c>
       <c r="K13">
-        <v>0.2647618404140601</v>
+        <v>0.2191440655334453</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1117441911148447</v>
       </c>
       <c r="M13">
-        <v>1.701054935250113</v>
+        <v>0.06723290488536193</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.645316126791698</v>
       </c>
       <c r="P13">
-        <v>0.6341127628388108</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.662215970515895</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.461306803584677</v>
+        <v>1.365307113081911</v>
       </c>
       <c r="C14">
-        <v>0.3088496668697758</v>
+        <v>0.3275576959825344</v>
       </c>
       <c r="D14">
-        <v>0.112384182289091</v>
+        <v>0.1253430312279562</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5651554017687843</v>
+        <v>0.4908060627324886</v>
       </c>
       <c r="G14">
-        <v>0.4177717809227062</v>
+        <v>0.4046042854322991</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.00514334731986299</v>
+        <v>0.005097676704777676</v>
       </c>
       <c r="J14">
-        <v>0.3173329462943855</v>
+        <v>0.2550364083593024</v>
       </c>
       <c r="K14">
-        <v>0.2646168896413172</v>
+        <v>0.2212186324585197</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1130831394550231</v>
       </c>
       <c r="M14">
-        <v>1.671077651492993</v>
+        <v>0.06698936880487594</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.621373582728495</v>
       </c>
       <c r="P14">
-        <v>0.6394604515852507</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.6647643853414493</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.444160524564722</v>
+        <v>1.351131117956868</v>
       </c>
       <c r="C15">
-        <v>0.3060030271695666</v>
+        <v>0.3253893778766326</v>
       </c>
       <c r="D15">
-        <v>0.1114926094645341</v>
+        <v>0.1238415885915316</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5609498637535211</v>
+        <v>0.4898431237919212</v>
       </c>
       <c r="G15">
-        <v>0.4148993228372859</v>
+        <v>0.3964873868091843</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.005054732155864272</v>
+        <v>0.00507461857221525</v>
       </c>
       <c r="J15">
-        <v>0.3165911242945185</v>
+        <v>0.2616620913497272</v>
       </c>
       <c r="K15">
-        <v>0.2641635192608227</v>
+        <v>0.2221262049492303</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1137878321824655</v>
       </c>
       <c r="M15">
-        <v>1.652527325432629</v>
+        <v>0.06668952955660856</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.60631360746936</v>
       </c>
       <c r="P15">
-        <v>0.642901878283908</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.6666700249047395</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.351642900307326</v>
+        <v>1.273654837290707</v>
       </c>
       <c r="C16">
-        <v>0.2873398962330782</v>
+        <v>0.3092783312886809</v>
       </c>
       <c r="D16">
-        <v>0.1058292965095973</v>
+        <v>0.1151575127683913</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5407520556981495</v>
+        <v>0.4852642907160387</v>
       </c>
       <c r="G16">
-        <v>0.4022622821841964</v>
+        <v>0.3605256337163354</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.004132465955430931</v>
+        <v>0.004369160833601171</v>
       </c>
       <c r="J16">
-        <v>0.3143108012199889</v>
+        <v>0.2967349126590335</v>
       </c>
       <c r="K16">
-        <v>0.2640729004202598</v>
+        <v>0.2284063391467335</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1182788660734602</v>
       </c>
       <c r="M16">
-        <v>1.54759628239259</v>
+        <v>0.06549113963984254</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.518114506703824</v>
       </c>
       <c r="P16">
-        <v>0.6619976532348844</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.6775405257230993</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.294880824673726</v>
+        <v>1.224722807178807</v>
       </c>
       <c r="C17">
-        <v>0.2759778199240372</v>
+        <v>0.2983903640124197</v>
       </c>
       <c r="D17">
-        <v>0.102359578756932</v>
+        <v>0.1102542691220449</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5286284743817049</v>
+        <v>0.4804684472302725</v>
       </c>
       <c r="G17">
-        <v>0.394751830297821</v>
+        <v>0.3441832550014396</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.003653212467908951</v>
+        <v>0.003993323152396755</v>
       </c>
       <c r="J17">
-        <v>0.3130519668391827</v>
+        <v>0.3130148786074827</v>
       </c>
       <c r="K17">
-        <v>0.2641386808098432</v>
+        <v>0.2315024076024379</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1208356622153897</v>
       </c>
       <c r="M17">
-        <v>1.483324602809546</v>
+        <v>0.06451434942427525</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.461355829805939</v>
       </c>
       <c r="P17">
-        <v>0.6739759694626954</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.6854024455544412</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.264518082978867</v>
+        <v>1.198252820152391</v>
       </c>
       <c r="C18">
-        <v>0.268489377746107</v>
+        <v>0.2907435317077898</v>
       </c>
       <c r="D18">
-        <v>0.1001418530501397</v>
+        <v>0.1073503047592368</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5231917348885062</v>
+        <v>0.4783383767165574</v>
       </c>
       <c r="G18">
-        <v>0.391939973317406</v>
+        <v>0.3379658950496136</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.003172641109842722</v>
+        <v>0.003509580598604956</v>
       </c>
       <c r="J18">
-        <v>0.3131065487496869</v>
+        <v>0.320662143390166</v>
       </c>
       <c r="K18">
-        <v>0.2651722831914114</v>
+        <v>0.2338285769203239</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1225285806629248</v>
       </c>
       <c r="M18">
-        <v>1.446885846119585</v>
+        <v>0.06419386947611905</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.428255406868175</v>
       </c>
       <c r="P18">
-        <v>0.6806130642668826</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.6897951725866633</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.252470353922263</v>
+        <v>1.187536553145065</v>
       </c>
       <c r="C19">
-        <v>0.2667170333416067</v>
+        <v>0.28888817142672</v>
       </c>
       <c r="D19">
-        <v>0.09956358468581072</v>
+        <v>0.1065676124053709</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5202542315080692</v>
+        <v>0.4764711089604958</v>
       </c>
       <c r="G19">
-        <v>0.3899046441478475</v>
+        <v>0.3351652428512679</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.003193246178405218</v>
+        <v>0.003567571967583838</v>
       </c>
       <c r="J19">
-        <v>0.3125712793236346</v>
+        <v>0.3223048195150255</v>
       </c>
       <c r="K19">
-        <v>0.2647944655537628</v>
+        <v>0.2339389646105872</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1228539502358057</v>
       </c>
       <c r="M19">
-        <v>1.434170884853557</v>
+        <v>0.0638272932327677</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.416525382798739</v>
       </c>
       <c r="P19">
-        <v>0.6831440336974381</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.6917465583074609</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.301103512291519</v>
+        <v>1.230153292775526</v>
       </c>
       <c r="C20">
-        <v>0.2771068983229128</v>
+        <v>0.2995058036160003</v>
       </c>
       <c r="D20">
-        <v>0.1027112047086334</v>
+        <v>0.1107429218573444</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5300223401555257</v>
+        <v>0.4811567328258661</v>
       </c>
       <c r="G20">
-        <v>0.3956539927455793</v>
+        <v>0.345825901814095</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.003682347529852414</v>
+        <v>0.004008270428684568</v>
       </c>
       <c r="J20">
-        <v>0.3132378982630826</v>
+        <v>0.3115709663501463</v>
       </c>
       <c r="K20">
-        <v>0.2642018162427284</v>
+        <v>0.2312649351201621</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1205948963464269</v>
       </c>
       <c r="M20">
-        <v>1.490201961358025</v>
+        <v>0.06465177184870186</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.467532657549555</v>
       </c>
       <c r="P20">
-        <v>0.6726632045866694</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.6844821255718898</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.466519218669077</v>
+        <v>1.367140351706894</v>
       </c>
       <c r="C21">
-        <v>0.3115038527540719</v>
+        <v>0.3281117780821887</v>
       </c>
       <c r="D21">
-        <v>0.1131054295114069</v>
+        <v>0.1270373352002991</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5652951020561403</v>
+        <v>0.4859900440141374</v>
       </c>
       <c r="G21">
-        <v>0.4172979629431666</v>
+        <v>0.4154169322360701</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.005462899034548663</v>
+        <v>0.005434921732167197</v>
       </c>
       <c r="J21">
-        <v>0.3167435048390956</v>
+        <v>0.2417021812865485</v>
       </c>
       <c r="K21">
-        <v>0.2635966640935585</v>
+        <v>0.2183748386851576</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.111942033991598</v>
       </c>
       <c r="M21">
-        <v>1.679320235573215</v>
+        <v>0.06610754952376041</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.623597223072323</v>
       </c>
       <c r="P21">
-        <v>0.6383045763381254</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.6660597344217791</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.577906755958566</v>
+        <v>1.458378013506035</v>
       </c>
       <c r="C22">
-        <v>0.3328962302090872</v>
+        <v>0.3449302755197721</v>
       </c>
       <c r="D22">
-        <v>0.1195968833128092</v>
+        <v>0.1377944303609837</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5913158887741119</v>
+        <v>0.4901190270670597</v>
       </c>
       <c r="G22">
-        <v>0.4342968427032332</v>
+        <v>0.4706033754069665</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.00661914299666222</v>
+        <v>0.006207019839773231</v>
       </c>
       <c r="J22">
-        <v>0.3205426800718101</v>
+        <v>0.2041133574475573</v>
       </c>
       <c r="K22">
-        <v>0.2649623676277173</v>
+        <v>0.2108431515236795</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.106884626451766</v>
       </c>
       <c r="M22">
-        <v>1.80401200685489</v>
+        <v>0.0675858393464992</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.724270181000804</v>
       </c>
       <c r="P22">
-        <v>0.6162075515791585</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.6554686179420912</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.52156350171299</v>
+        <v>1.414186773327316</v>
       </c>
       <c r="C23">
-        <v>0.3201209744590017</v>
+        <v>0.3358669440893323</v>
       </c>
       <c r="D23">
-        <v>0.1158275103568798</v>
+        <v>0.1312305675903502</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5792825660003942</v>
+        <v>0.4921684745220674</v>
       </c>
       <c r="G23">
-        <v>0.4270600969509815</v>
+        <v>0.4361641685541002</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.005707591581132654</v>
+        <v>0.005454568590930187</v>
       </c>
       <c r="J23">
-        <v>0.3194476440006042</v>
+        <v>0.2296872898202551</v>
       </c>
       <c r="K23">
-        <v>0.2654745261115288</v>
+        <v>0.2168570745440341</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1102063119965617</v>
       </c>
       <c r="M23">
-        <v>1.738099774510403</v>
+        <v>0.06764981187153651</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.674358608242557</v>
       </c>
       <c r="P23">
-        <v>0.6274096405836573</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6590395756949263</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.303145389353233</v>
+        <v>1.232290257566092</v>
       </c>
       <c r="C24">
-        <v>0.2745175871908145</v>
+        <v>0.2968301478599926</v>
       </c>
       <c r="D24">
-        <v>0.1020791388084135</v>
+        <v>0.1100356294755827</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5324472320068381</v>
+        <v>0.4836617665005747</v>
       </c>
       <c r="G24">
-        <v>0.3982609199572664</v>
+        <v>0.3478469921821414</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.003211967563552243</v>
+        <v>0.003440266966529215</v>
       </c>
       <c r="J24">
-        <v>0.3146970580310153</v>
+        <v>0.313594070116352</v>
       </c>
       <c r="K24">
-        <v>0.2661931056130733</v>
+        <v>0.2330979288845114</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.121332318616167</v>
       </c>
       <c r="M24">
-        <v>1.488144860957419</v>
+        <v>0.06527177918407645</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.465752309996105</v>
       </c>
       <c r="P24">
-        <v>0.6725190551296514</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.6837756247414752</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.067529734058127</v>
+        <v>1.017995780916863</v>
       </c>
       <c r="C25">
-        <v>0.2263663140541183</v>
+        <v>0.2416096524270728</v>
       </c>
       <c r="D25">
-        <v>0.08728662474663906</v>
+        <v>0.09253507139585082</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4856251459930832</v>
+        <v>0.4486106288424736</v>
       </c>
       <c r="G25">
-        <v>0.3705535720474629</v>
+        <v>0.3234905637922694</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001562671800751758</v>
+        <v>0.001935037002678719</v>
       </c>
       <c r="J25">
-        <v>0.3115384485880384</v>
+        <v>0.319764125010721</v>
       </c>
       <c r="K25">
-        <v>0.2686999580896305</v>
+        <v>0.2406164910618216</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1303597853905334</v>
       </c>
       <c r="M25">
-        <v>1.219763462139781</v>
+        <v>0.05997744308617925</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.206383299602095</v>
       </c>
       <c r="P25">
-        <v>0.7248174506997742</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7249615445098598</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
